--- a/model_results_final.xlsx
+++ b/model_results_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2509de95a29fd27c/Documentos/Master/Lusku/TFM/Repositorio compartido/kschool_master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Master\kschool_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{1D820BD5-C78B-45E2-A5DD-A52336B4B79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{991ACEAB-7AF2-4D09-8F3E-8456325EF722}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E7F09-2B71-4683-AC28-BE2CB54D786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aprendizaje Supervisado" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Pruebas 1" sheetId="3" r:id="rId3"/>
     <sheet name="Pruebas 2 - Con discretizacion" sheetId="4" r:id="rId4"/>
     <sheet name="Prueba 2 - Discret + AUC" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -718,17 +719,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M113" sqref="M113"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="49.29296875" customWidth="1"/>
+    <col min="2" max="2" width="7.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -828,7 +829,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -878,7 +879,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -928,7 +929,7 @@
         <v>72.02</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -978,7 +979,7 @@
         <v>76.17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>74.510000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>80.31</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>79.459999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>75.52</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>80.69</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>78.02</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>88.17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>81.650000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>91.04</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>85.94</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>84.19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>87.93</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>89.29</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>95.11</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>91.94</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>90.43</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>93.71</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>94.11</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>81.650000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>75.67</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>85.06</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>81.48</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2578,7 +2579,7 @@
         <v>76.709999999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>78.05</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>75.489999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>76.56</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>73.36</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>74.11</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>73.540000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>75.489999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>67.680000000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>74.55</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>72.58</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>70.959999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>89.44</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>84.92</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>92.38</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>90.66</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>93.66</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>93.69</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>95.87</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
         <v>36</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
         <v>36</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
         <v>36</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
         <v>36</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>80.05</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>78.87</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -3976,7 +3977,7 @@
         <v>73.63</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>81.88</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>81.12</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>76.709999999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>79.89</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>79.349999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>73.23</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>84.62</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>81.260000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>75.92</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A80" s="2" t="s">
         <v>35</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A81" s="2" t="s">
         <v>35</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A83" s="2" t="s">
         <v>35</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A84" s="2" t="s">
         <v>35</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A85" s="2" t="s">
         <v>35</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>80.55</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>80.48</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>74.55</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>84.65</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>30</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>79.22</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>96.79</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -4992,7 +4993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>95.76</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>96.79</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>92.33</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>95.76</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -5406,16 +5407,16 @@
       <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.703125" customWidth="1"/>
+    <col min="8" max="8" width="20.1171875" customWidth="1"/>
+    <col min="9" max="9" width="19.87890625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>72.02</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>75.52</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>78.02</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>84.19</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>90.43</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>94.11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>75.67</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>76.709999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>74.11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>67.680000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>70.959999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>84.92</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>93.66</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>95.87</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>73.63</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>76.709999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>73.23</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>75.92</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>74.55</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>90.43</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>94.11</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>84.92</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>93.66</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -7265,7 +7266,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>95.87</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -7479,9 +7480,9 @@
       <selection sqref="A1:P102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>72.02</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>76.17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>74.510000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -7831,7 +7832,7 @@
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -7881,7 +7882,7 @@
         <v>80.31</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>79.459999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -7981,7 +7982,7 @@
         <v>75.52</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -8031,7 +8032,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>80.69</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -8131,7 +8132,7 @@
         <v>78.02</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8181,7 +8182,7 @@
         <v>88.17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>81.650000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>91.04</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -8381,7 +8382,7 @@
         <v>85.94</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>84.19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -8481,7 +8482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>87.93</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8631,7 +8632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>89.29</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>95.11</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -8831,7 +8832,7 @@
         <v>91.94</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -8881,7 +8882,7 @@
         <v>90.43</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -8931,7 +8932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -8981,7 +8982,7 @@
         <v>93.71</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>94.11</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>81.650000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -9131,7 +9132,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>75.67</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -9231,7 +9232,7 @@
         <v>85.06</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>81.48</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -9331,7 +9332,7 @@
         <v>76.709999999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>78.05</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>75.489999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>76.56</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -9581,7 +9582,7 @@
         <v>73.36</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>74.11</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>73.540000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -9731,7 +9732,7 @@
         <v>75.489999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -9781,7 +9782,7 @@
         <v>67.680000000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>74.55</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>72.58</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -9931,7 +9932,7 @@
         <v>70.959999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -9981,7 +9982,7 @@
         <v>89.44</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -10081,7 +10082,7 @@
         <v>84.92</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>92.38</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>90.66</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -10231,7 +10232,7 @@
         <v>93.66</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -10381,7 +10382,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>93.69</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>95.87</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -10542,7 +10543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
         <v>36</v>
       </c>
@@ -10553,7 +10554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
         <v>36</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
         <v>36</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
         <v>36</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
         <v>36</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>80.05</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -10697,7 +10698,7 @@
         <v>78.87</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -10747,7 +10748,7 @@
         <v>73.63</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -10797,7 +10798,7 @@
         <v>81.88</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>81.12</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -10897,7 +10898,7 @@
         <v>76.709999999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>79.89</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -10997,7 +10998,7 @@
         <v>79.349999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -11047,7 +11048,7 @@
         <v>73.23</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>84.62</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -11147,7 +11148,7 @@
         <v>81.260000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -11197,7 +11198,7 @@
         <v>75.92</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A80" s="2" t="s">
         <v>35</v>
       </c>
@@ -11208,7 +11209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A81" s="2" t="s">
         <v>35</v>
       </c>
@@ -11219,7 +11220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
@@ -11230,7 +11231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A83" s="2" t="s">
         <v>35</v>
       </c>
@@ -11241,7 +11242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A84" s="2" t="s">
         <v>35</v>
       </c>
@@ -11252,7 +11253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A85" s="2" t="s">
         <v>35</v>
       </c>
@@ -11263,7 +11264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -11313,7 +11314,7 @@
         <v>80.55</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>80.48</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>74.55</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -11463,7 +11464,7 @@
         <v>84.65</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>30</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>79.22</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -11563,7 +11564,7 @@
         <v>79.540000000000006</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -11613,7 +11614,7 @@
         <v>96.79</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -11663,7 +11664,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -11713,7 +11714,7 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -11813,7 +11814,7 @@
         <v>95.76</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -11913,7 +11914,7 @@
         <v>96.79</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -12013,7 +12014,7 @@
         <v>92.33</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -12122,16 +12123,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FE2817-05AF-4E33-A75C-2A59F8CF6443}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12181,7 +12182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -12231,7 +12232,7 @@
         <v>89.59</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -12281,7 +12282,7 @@
         <v>83.24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -12331,7 +12332,7 @@
         <v>37.32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -12431,7 +12432,7 @@
         <v>93.31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -12481,7 +12482,7 @@
         <v>93.98</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -12531,7 +12532,7 @@
         <v>83.47</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -12581,7 +12582,7 @@
         <v>84.07</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -12631,7 +12632,7 @@
         <v>89.92</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -12681,7 +12682,7 @@
         <v>80.28</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -12731,7 +12732,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -12781,7 +12782,7 @@
         <v>93.51</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -12831,7 +12832,7 @@
         <v>93.65</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -12881,7 +12882,7 @@
         <v>91.26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -12931,7 +12932,7 @@
         <v>93.19</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>85.01</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -13031,7 +13032,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -13081,7 +13082,7 @@
         <v>95.09</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -13131,7 +13132,7 @@
         <v>94.65</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>91.19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -13231,7 +13232,7 @@
         <v>97.84</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -13281,7 +13282,7 @@
         <v>85.64</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -13331,7 +13332,7 @@
         <v>87.61</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -13381,7 +13382,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -13431,7 +13432,7 @@
         <v>96.97</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -13481,7 +13482,7 @@
         <v>92.57</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>90.58</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -13581,7 +13582,7 @@
         <v>85.64</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -13631,7 +13632,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -13681,7 +13682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -13731,7 +13732,7 @@
         <v>95.44</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>92.57</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>89.51</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -13881,7 +13882,7 @@
         <v>81.03</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -13931,7 +13932,7 @@
         <v>86.15</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -13981,7 +13982,7 @@
         <v>95.36</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -14031,7 +14032,7 @@
         <v>93.59</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -14081,7 +14082,7 @@
         <v>92.96</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -14131,7 +14132,7 @@
         <v>88.84</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -14181,7 +14182,7 @@
         <v>83.39</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -14231,7 +14232,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -14281,7 +14282,7 @@
         <v>93.46</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -14331,7 +14332,7 @@
         <v>94.77</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -14381,7 +14382,7 @@
         <v>91.22</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -14431,7 +14432,7 @@
         <v>88.16</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -14481,7 +14482,7 @@
         <v>83.39</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -14531,7 +14532,7 @@
         <v>86.35</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -14631,7 +14632,7 @@
         <v>92.69</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -14681,7 +14682,7 @@
         <v>91.45</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>98.36</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -14781,7 +14782,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -14831,7 +14832,7 @@
         <v>87.29</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -14881,7 +14882,7 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -14931,7 +14932,7 @@
         <v>95.72</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -14981,7 +14982,7 @@
         <v>94.23</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -15031,7 +15032,7 @@
         <v>95.31</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -15081,7 +15082,7 @@
         <v>87.05</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -15131,7 +15132,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -15181,7 +15182,7 @@
         <v>98.27</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -15231,7 +15232,7 @@
         <v>96.45</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -15288,15 +15289,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F8AC20-6EC1-42CE-AD3D-81B670E7966E}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="27.1171875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15346,7 +15350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -15396,7 +15400,7 @@
         <v>94.61</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -15446,7 +15450,7 @@
         <v>85.01</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -15496,7 +15500,7 @@
         <v>90.06</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -15546,7 +15550,7 @@
         <v>99.73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -15596,7 +15600,7 @@
         <v>93.82</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -15646,7 +15650,7 @@
         <v>93.99</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -15696,7 +15700,7 @@
         <v>89.28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -15746,7 +15750,7 @@
         <v>85.27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -15796,7 +15800,7 @@
         <v>89.49</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -15846,7 +15850,7 @@
         <v>94.91</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -15896,7 +15900,7 @@
         <v>90.93</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -15946,7 +15950,7 @@
         <v>93.04</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -15996,7 +16000,7 @@
         <v>93.95</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -16046,7 +16050,7 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -16096,7 +16100,7 @@
         <v>86.43</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -16146,7 +16150,7 @@
         <v>97.52</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -16196,7 +16200,7 @@
         <v>92.69</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -16246,7 +16250,7 @@
         <v>93.32</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -16296,7 +16300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -16346,7 +16350,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -16396,7 +16400,7 @@
         <v>91.49</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -16446,7 +16450,7 @@
         <v>99.25</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -16496,7 +16500,7 @@
         <v>93.67</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -16546,7 +16550,7 @@
         <v>95.76</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -16596,7 +16600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -16646,7 +16650,7 @@
         <v>84.02</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -16696,7 +16700,7 @@
         <v>89.69</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -16746,7 +16750,7 @@
         <v>95.46</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -16796,7 +16800,7 @@
         <v>93.91</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -16846,7 +16850,7 @@
         <v>94.73</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -16896,7 +16900,7 @@
         <v>88.91</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -16946,7 +16950,7 @@
         <v>82.94</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -16996,7 +17000,7 @@
         <v>86.83</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -17046,7 +17050,7 @@
         <v>95.38</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -17096,7 +17100,7 @@
         <v>93.84</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -17146,7 +17150,7 @@
         <v>94.73</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -17196,7 +17200,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -17246,7 +17250,7 @@
         <v>82.99</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -17296,7 +17300,7 @@
         <v>87.83</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -17346,7 +17350,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -17396,7 +17400,7 @@
         <v>91.48</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -17446,7 +17450,7 @@
         <v>92.03</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -17496,7 +17500,7 @@
         <v>98.69</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -17546,7 +17550,7 @@
         <v>84.54</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -17596,7 +17600,7 @@
         <v>90.31</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -17646,7 +17650,7 @@
         <v>98.71</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -17696,7 +17700,7 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -17744,6 +17748,6021 @@
       </c>
       <c r="P49">
         <v>93.54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>0.97153351698806245</v>
+      </c>
+      <c r="E50">
+        <v>0.97185893468622075</v>
+      </c>
+      <c r="F50">
+        <v>0.97153351698806245</v>
+      </c>
+      <c r="G50">
+        <v>0.97155734870807631</v>
+      </c>
+      <c r="H50">
+        <v>0.88927220160807285</v>
+      </c>
+      <c r="I50">
+        <v>2.8466483011937559E-2</v>
+      </c>
+      <c r="J50">
+        <v>0.88536842105263158</v>
+      </c>
+      <c r="K50">
+        <v>0.99491001697792869</v>
+      </c>
+      <c r="L50">
+        <v>491</v>
+      </c>
+      <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>22</v>
+      </c>
+      <c r="O50">
+        <v>567</v>
+      </c>
+      <c r="P50">
+        <v>96.58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="E51">
+        <v>0.90421597633136086</v>
+      </c>
+      <c r="F51">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="G51">
+        <v>0.90396869391007073</v>
+      </c>
+      <c r="H51">
+        <v>0.65126897630949354</v>
+      </c>
+      <c r="I51">
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="J51">
+        <v>0.60536505281417474</v>
+      </c>
+      <c r="K51">
+        <v>0.96138834680791752</v>
+      </c>
+      <c r="L51">
+        <v>137</v>
+      </c>
+      <c r="M51">
+        <v>16</v>
+      </c>
+      <c r="N51">
+        <v>19</v>
+      </c>
+      <c r="O51">
+        <v>192</v>
+      </c>
+      <c r="P51">
+        <v>87.97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="E52">
+        <v>0.90195432707995526</v>
+      </c>
+      <c r="F52">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="G52">
+        <v>0.90128023791390122</v>
+      </c>
+      <c r="H52">
+        <v>0.64251086662126899</v>
+      </c>
+      <c r="I52">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="J52">
+        <v>0.59797514956281628</v>
+      </c>
+      <c r="K52">
+        <v>0.96168123945390405</v>
+      </c>
+      <c r="L52">
+        <v>144</v>
+      </c>
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52">
+        <v>21</v>
+      </c>
+      <c r="O52">
+        <v>184</v>
+      </c>
+      <c r="P52">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="E53">
+        <v>0.9660303092510143</v>
+      </c>
+      <c r="F53">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="G53">
+        <v>0.96600647408233908</v>
+      </c>
+      <c r="H53">
+        <v>0.86857582538011846</v>
+      </c>
+      <c r="I53">
+        <v>3.3976124885215793E-2</v>
+      </c>
+      <c r="J53">
+        <v>0.86256284663715066</v>
+      </c>
+      <c r="K53">
+        <v>0.99325997530476784</v>
+      </c>
+      <c r="L53">
+        <v>466</v>
+      </c>
+      <c r="M53">
+        <v>21</v>
+      </c>
+      <c r="N53">
+        <v>16</v>
+      </c>
+      <c r="O53">
+        <v>586</v>
+      </c>
+      <c r="P53">
+        <v>95.69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="E54">
+        <v>0.94022671265649183</v>
+      </c>
+      <c r="F54">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="G54">
+        <v>0.93963753083651047</v>
+      </c>
+      <c r="H54">
+        <v>0.77222653230811855</v>
+      </c>
+      <c r="I54">
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.75611390284757118</v>
+      </c>
+      <c r="K54">
+        <v>0.98943200852748592</v>
+      </c>
+      <c r="L54">
+        <v>157</v>
+      </c>
+      <c r="M54">
+        <v>8</v>
+      </c>
+      <c r="N54">
+        <v>14</v>
+      </c>
+      <c r="O54">
+        <v>185</v>
+      </c>
+      <c r="P54">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E55">
+        <v>0.95614961961115807</v>
+      </c>
+      <c r="F55">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G55">
+        <v>0.95597913208826313</v>
+      </c>
+      <c r="H55">
+        <v>0.83140576417535506</v>
+      </c>
+      <c r="I55">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J55">
+        <v>0.82156862745098036</v>
+      </c>
+      <c r="K55">
+        <v>0.99016544117647065</v>
+      </c>
+      <c r="L55">
+        <v>150</v>
+      </c>
+      <c r="M55">
+        <v>10</v>
+      </c>
+      <c r="N55">
+        <v>6</v>
+      </c>
+      <c r="O55">
+        <v>198</v>
+      </c>
+      <c r="P55">
+        <v>94.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>0.97153351698806245</v>
+      </c>
+      <c r="E56">
+        <v>0.97185893468622075</v>
+      </c>
+      <c r="F56">
+        <v>0.97153351698806245</v>
+      </c>
+      <c r="G56">
+        <v>0.97155734870807631</v>
+      </c>
+      <c r="H56">
+        <v>0.88927220160807285</v>
+      </c>
+      <c r="I56">
+        <v>2.8466483011937559E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.88536842105263158</v>
+      </c>
+      <c r="K56">
+        <v>0.99491001697792869</v>
+      </c>
+      <c r="L56">
+        <v>491</v>
+      </c>
+      <c r="M56">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>22</v>
+      </c>
+      <c r="O56">
+        <v>567</v>
+      </c>
+      <c r="P56">
+        <v>96.58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="E57">
+        <v>0.90421597633136086</v>
+      </c>
+      <c r="F57">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="G57">
+        <v>0.90396869391007073</v>
+      </c>
+      <c r="H57">
+        <v>0.65126897630949354</v>
+      </c>
+      <c r="I57">
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.60536505281417474</v>
+      </c>
+      <c r="K57">
+        <v>0.96138834680791752</v>
+      </c>
+      <c r="L57">
+        <v>137</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+      <c r="N57">
+        <v>19</v>
+      </c>
+      <c r="O57">
+        <v>192</v>
+      </c>
+      <c r="P57">
+        <v>87.97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="E58">
+        <v>0.90195432707995526</v>
+      </c>
+      <c r="F58">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="G58">
+        <v>0.90128023791390122</v>
+      </c>
+      <c r="H58">
+        <v>0.64251086662126899</v>
+      </c>
+      <c r="I58">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.59797514956281628</v>
+      </c>
+      <c r="K58">
+        <v>0.96165055990182546</v>
+      </c>
+      <c r="L58">
+        <v>144</v>
+      </c>
+      <c r="M58">
+        <v>15</v>
+      </c>
+      <c r="N58">
+        <v>21</v>
+      </c>
+      <c r="O58">
+        <v>184</v>
+      </c>
+      <c r="P58">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="E59">
+        <v>0.9660303092510143</v>
+      </c>
+      <c r="F59">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="G59">
+        <v>0.96600647408233908</v>
+      </c>
+      <c r="H59">
+        <v>0.86857582538011846</v>
+      </c>
+      <c r="I59">
+        <v>3.3976124885215793E-2</v>
+      </c>
+      <c r="J59">
+        <v>0.86256284663715066</v>
+      </c>
+      <c r="K59">
+        <v>0.99325997530476784</v>
+      </c>
+      <c r="L59">
+        <v>466</v>
+      </c>
+      <c r="M59">
+        <v>21</v>
+      </c>
+      <c r="N59">
+        <v>16</v>
+      </c>
+      <c r="O59">
+        <v>586</v>
+      </c>
+      <c r="P59">
+        <v>95.69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="E60">
+        <v>0.94022671265649183</v>
+      </c>
+      <c r="F60">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="G60">
+        <v>0.93963753083651047</v>
+      </c>
+      <c r="H60">
+        <v>0.77222653230811855</v>
+      </c>
+      <c r="I60">
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="J60">
+        <v>0.75611390284757118</v>
+      </c>
+      <c r="K60">
+        <v>0.98943200852748592</v>
+      </c>
+      <c r="L60">
+        <v>157</v>
+      </c>
+      <c r="M60">
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <v>14</v>
+      </c>
+      <c r="O60">
+        <v>185</v>
+      </c>
+      <c r="P60">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E61">
+        <v>0.95614961961115807</v>
+      </c>
+      <c r="F61">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G61">
+        <v>0.95597913208826313</v>
+      </c>
+      <c r="H61">
+        <v>0.83140576417535506</v>
+      </c>
+      <c r="I61">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J61">
+        <v>0.82156862745098036</v>
+      </c>
+      <c r="K61">
+        <v>0.99016544117647065</v>
+      </c>
+      <c r="L61">
+        <v>150</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>6</v>
+      </c>
+      <c r="O61">
+        <v>198</v>
+      </c>
+      <c r="P61">
+        <v>94.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>0.91092745638200179</v>
+      </c>
+      <c r="E62">
+        <v>0.91116104041318524</v>
+      </c>
+      <c r="F62">
+        <v>0.91092745638200179</v>
+      </c>
+      <c r="G62">
+        <v>0.91098182780176029</v>
+      </c>
+      <c r="H62">
+        <v>0.67514094578898864</v>
+      </c>
+      <c r="I62">
+        <v>8.9072543617998157E-2</v>
+      </c>
+      <c r="J62">
+        <v>0.6413140916808151</v>
+      </c>
+      <c r="K62">
+        <v>0.97339898132427838</v>
+      </c>
+      <c r="L62">
+        <v>456</v>
+      </c>
+      <c r="M62">
+        <v>44</v>
+      </c>
+      <c r="N62">
+        <v>53</v>
+      </c>
+      <c r="O62">
+        <v>536</v>
+      </c>
+      <c r="P62">
+        <v>89.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="E63">
+        <v>0.90094110665360849</v>
+      </c>
+      <c r="F63">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="G63">
+        <v>0.90090825134197949</v>
+      </c>
+      <c r="H63">
+        <v>0.64229390853964752</v>
+      </c>
+      <c r="I63">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="J63">
+        <v>0.59408976860886542</v>
+      </c>
+      <c r="K63">
+        <v>0.96770746213177217</v>
+      </c>
+      <c r="L63">
+        <v>133</v>
+      </c>
+      <c r="M63">
+        <v>20</v>
+      </c>
+      <c r="N63">
+        <v>16</v>
+      </c>
+      <c r="O63">
+        <v>195</v>
+      </c>
+      <c r="P63">
+        <v>87.48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>0.88736263736263732</v>
+      </c>
+      <c r="E64">
+        <v>0.88902360394707336</v>
+      </c>
+      <c r="F64">
+        <v>0.88736263736263732</v>
+      </c>
+      <c r="G64">
+        <v>0.88764868250786488</v>
+      </c>
+      <c r="H64">
+        <v>0.59908097426343399</v>
+      </c>
+      <c r="I64">
+        <v>0.1126373626373626</v>
+      </c>
+      <c r="J64">
+        <v>0.54213836477987409</v>
+      </c>
+      <c r="K64">
+        <v>0.95618959963184547</v>
+      </c>
+      <c r="L64">
+        <v>143</v>
+      </c>
+      <c r="M64">
+        <v>16</v>
+      </c>
+      <c r="N64">
+        <v>25</v>
+      </c>
+      <c r="O64">
+        <v>180</v>
+      </c>
+      <c r="P64">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="E65">
+        <v>0.9660303092510143</v>
+      </c>
+      <c r="F65">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="G65">
+        <v>0.96600647408233908</v>
+      </c>
+      <c r="H65">
+        <v>0.86857582538011846</v>
+      </c>
+      <c r="I65">
+        <v>3.3976124885215793E-2</v>
+      </c>
+      <c r="J65">
+        <v>0.86256284663715066</v>
+      </c>
+      <c r="K65">
+        <v>0.98958297802670081</v>
+      </c>
+      <c r="L65">
+        <v>466</v>
+      </c>
+      <c r="M65">
+        <v>21</v>
+      </c>
+      <c r="N65">
+        <v>16</v>
+      </c>
+      <c r="O65">
+        <v>586</v>
+      </c>
+      <c r="P65">
+        <v>95.65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="E66">
+        <v>0.94022671265649183</v>
+      </c>
+      <c r="F66">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="G66">
+        <v>0.93963753083651047</v>
+      </c>
+      <c r="H66">
+        <v>0.77222653230811855</v>
+      </c>
+      <c r="I66">
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="J66">
+        <v>0.75611390284757118</v>
+      </c>
+      <c r="K66">
+        <v>0.98504644434292676</v>
+      </c>
+      <c r="L66">
+        <v>157</v>
+      </c>
+      <c r="M66">
+        <v>8</v>
+      </c>
+      <c r="N66">
+        <v>14</v>
+      </c>
+      <c r="O66">
+        <v>185</v>
+      </c>
+      <c r="P66">
+        <v>92.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E67">
+        <v>0.95614961961115807</v>
+      </c>
+      <c r="F67">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G67">
+        <v>0.95597913208826313</v>
+      </c>
+      <c r="H67">
+        <v>0.83140576417535506</v>
+      </c>
+      <c r="I67">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J67">
+        <v>0.82156862745098036</v>
+      </c>
+      <c r="K67">
+        <v>0.98612132352941173</v>
+      </c>
+      <c r="L67">
+        <v>150</v>
+      </c>
+      <c r="M67">
+        <v>10</v>
+      </c>
+      <c r="N67">
+        <v>6</v>
+      </c>
+      <c r="O67">
+        <v>198</v>
+      </c>
+      <c r="P67">
+        <v>94.31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>0.90633608815427003</v>
+      </c>
+      <c r="E68">
+        <v>0.90640873335146077</v>
+      </c>
+      <c r="F68">
+        <v>0.90633608815427003</v>
+      </c>
+      <c r="G68">
+        <v>0.90622117112723233</v>
+      </c>
+      <c r="H68">
+        <v>0.66010312433584917</v>
+      </c>
+      <c r="I68">
+        <v>9.366391184573003E-2</v>
+      </c>
+      <c r="J68">
+        <v>0.62282512733446527</v>
+      </c>
+      <c r="K68">
+        <v>0.97259422750424451</v>
+      </c>
+      <c r="L68">
+        <v>442</v>
+      </c>
+      <c r="M68">
+        <v>58</v>
+      </c>
+      <c r="N68">
+        <v>44</v>
+      </c>
+      <c r="O68">
+        <v>545</v>
+      </c>
+      <c r="P68">
+        <v>88.27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="E69">
+        <v>0.90094110665360849</v>
+      </c>
+      <c r="F69">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="G69">
+        <v>0.90090825134197949</v>
+      </c>
+      <c r="H69">
+        <v>0.64229390853964752</v>
+      </c>
+      <c r="I69">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="J69">
+        <v>0.59408976860886542</v>
+      </c>
+      <c r="K69">
+        <v>0.96606573118979033</v>
+      </c>
+      <c r="L69">
+        <v>133</v>
+      </c>
+      <c r="M69">
+        <v>20</v>
+      </c>
+      <c r="N69">
+        <v>16</v>
+      </c>
+      <c r="O69">
+        <v>195</v>
+      </c>
+      <c r="P69">
+        <v>87.46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="E70">
+        <v>0.88447766155745788</v>
+      </c>
+      <c r="F70">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="G70">
+        <v>0.88443786436032357</v>
+      </c>
+      <c r="H70">
+        <v>0.59048635312371012</v>
+      </c>
+      <c r="I70">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="J70">
+        <v>0.53097100782328566</v>
+      </c>
+      <c r="K70">
+        <v>0.96183463721429674</v>
+      </c>
+      <c r="L70">
+        <v>136</v>
+      </c>
+      <c r="M70">
+        <v>23</v>
+      </c>
+      <c r="N70">
+        <v>19</v>
+      </c>
+      <c r="O70">
+        <v>186</v>
+      </c>
+      <c r="P70">
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>0.9494949494949495</v>
+      </c>
+      <c r="E71">
+        <v>0.94953012308126705</v>
+      </c>
+      <c r="F71">
+        <v>0.9494949494949495</v>
+      </c>
+      <c r="G71">
+        <v>0.94944679787637543</v>
+      </c>
+      <c r="H71">
+        <v>0.80797897977625033</v>
+      </c>
+      <c r="I71">
+        <v>5.0505050505050497E-2</v>
+      </c>
+      <c r="J71">
+        <v>0.79570152878495359</v>
+      </c>
+      <c r="K71">
+        <v>0.98695655139951011</v>
+      </c>
+      <c r="L71">
+        <v>455</v>
+      </c>
+      <c r="M71">
+        <v>32</v>
+      </c>
+      <c r="N71">
+        <v>23</v>
+      </c>
+      <c r="O71">
+        <v>579</v>
+      </c>
+      <c r="P71">
+        <v>93.57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>0.93131868131868134</v>
+      </c>
+      <c r="E72">
+        <v>0.93136732745166473</v>
+      </c>
+      <c r="F72">
+        <v>0.93131868131868134</v>
+      </c>
+      <c r="G72">
+        <v>0.93133592913285013</v>
+      </c>
+      <c r="H72">
+        <v>0.7434306980940566</v>
+      </c>
+      <c r="I72">
+        <v>6.8681318681318687E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.72285670778133093</v>
+      </c>
+      <c r="K72">
+        <v>0.98282320694380987</v>
+      </c>
+      <c r="L72">
+        <v>153</v>
+      </c>
+      <c r="M72">
+        <v>12</v>
+      </c>
+      <c r="N72">
+        <v>13</v>
+      </c>
+      <c r="O72">
+        <v>186</v>
+      </c>
+      <c r="P72">
+        <v>91.48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="E73">
+        <v>0.93678394009733168</v>
+      </c>
+      <c r="F73">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="G73">
+        <v>0.93679139341393791</v>
+      </c>
+      <c r="H73">
+        <v>0.76253330209063608</v>
+      </c>
+      <c r="I73">
+        <v>6.3186813186813184E-2</v>
+      </c>
+      <c r="J73">
+        <v>0.74350490196078423</v>
+      </c>
+      <c r="K73">
+        <v>0.98121936274509802</v>
+      </c>
+      <c r="L73">
+        <v>148</v>
+      </c>
+      <c r="M73">
+        <v>12</v>
+      </c>
+      <c r="N73">
+        <v>11</v>
+      </c>
+      <c r="O73">
+        <v>193</v>
+      </c>
+      <c r="P73">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>0.97337006427915518</v>
+      </c>
+      <c r="E74">
+        <v>0.97369293681095903</v>
+      </c>
+      <c r="F74">
+        <v>0.97337006427915518</v>
+      </c>
+      <c r="G74">
+        <v>0.97339235846884553</v>
+      </c>
+      <c r="H74">
+        <v>0.89622011944119029</v>
+      </c>
+      <c r="I74">
+        <v>2.6629935720844811E-2</v>
+      </c>
+      <c r="J74">
+        <v>0.89276400679117152</v>
+      </c>
+      <c r="K74">
+        <v>0.99818675721561978</v>
+      </c>
+      <c r="L74">
+        <v>492</v>
+      </c>
+      <c r="M74">
+        <v>8</v>
+      </c>
+      <c r="N74">
+        <v>21</v>
+      </c>
+      <c r="O74">
+        <v>568</v>
+      </c>
+      <c r="P74">
+        <v>96.84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="E75">
+        <v>0.9147713941966672</v>
+      </c>
+      <c r="F75">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="G75">
+        <v>0.91479621800514721</v>
+      </c>
+      <c r="H75">
+        <v>0.68732045843682454</v>
+      </c>
+      <c r="I75">
+        <v>8.5164835164835168E-2</v>
+      </c>
+      <c r="J75">
+        <v>0.65046618963541181</v>
+      </c>
+      <c r="K75">
+        <v>0.97452219434377219</v>
+      </c>
+      <c r="L75">
+        <v>137</v>
+      </c>
+      <c r="M75">
+        <v>16</v>
+      </c>
+      <c r="N75">
+        <v>15</v>
+      </c>
+      <c r="O75">
+        <v>196</v>
+      </c>
+      <c r="P75">
+        <v>89.28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="E76">
+        <v>0.90195432707995526</v>
+      </c>
+      <c r="F76">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="G76">
+        <v>0.90128023791390122</v>
+      </c>
+      <c r="H76">
+        <v>0.64251086662126899</v>
+      </c>
+      <c r="I76">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="J76">
+        <v>0.59797514956281628</v>
+      </c>
+      <c r="K76">
+        <v>0.97145267679091885</v>
+      </c>
+      <c r="L76">
+        <v>144</v>
+      </c>
+      <c r="M76">
+        <v>15</v>
+      </c>
+      <c r="N76">
+        <v>21</v>
+      </c>
+      <c r="O76">
+        <v>184</v>
+      </c>
+      <c r="P76">
+        <v>87.92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>487</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>602</v>
+      </c>
+      <c r="P77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="E78">
+        <v>0.93517803807426425</v>
+      </c>
+      <c r="F78">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="G78">
+        <v>0.93416997203979435</v>
+      </c>
+      <c r="H78">
+        <v>0.75297474666874009</v>
+      </c>
+      <c r="I78">
+        <v>6.5934065934065936E-2</v>
+      </c>
+      <c r="J78">
+        <v>0.73394243947007776</v>
+      </c>
+      <c r="K78">
+        <v>0.97173747525506304</v>
+      </c>
+      <c r="L78">
+        <v>157</v>
+      </c>
+      <c r="M78">
+        <v>8</v>
+      </c>
+      <c r="N78">
+        <v>16</v>
+      </c>
+      <c r="O78">
+        <v>183</v>
+      </c>
+      <c r="P78">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E79">
+        <v>0.94778070525884606</v>
+      </c>
+      <c r="F79">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G79">
+        <v>0.94778419455933993</v>
+      </c>
+      <c r="H79">
+        <v>0.80153076567692461</v>
+      </c>
+      <c r="I79">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J79">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K79">
+        <v>0.97757352941176467</v>
+      </c>
+      <c r="L79">
+        <v>150</v>
+      </c>
+      <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>9</v>
+      </c>
+      <c r="O79">
+        <v>195</v>
+      </c>
+      <c r="P79">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>0.97153351698806245</v>
+      </c>
+      <c r="E80">
+        <v>0.97177386903198837</v>
+      </c>
+      <c r="F80">
+        <v>0.97153351698806245</v>
+      </c>
+      <c r="G80">
+        <v>0.97155421835818756</v>
+      </c>
+      <c r="H80">
+        <v>0.88927192138654132</v>
+      </c>
+      <c r="I80">
+        <v>2.8466483011937559E-2</v>
+      </c>
+      <c r="J80">
+        <v>0.88536842105263158</v>
+      </c>
+      <c r="K80">
+        <v>0.99693378607809846</v>
+      </c>
+      <c r="L80">
+        <v>490</v>
+      </c>
+      <c r="M80">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>21</v>
+      </c>
+      <c r="O80">
+        <v>568</v>
+      </c>
+      <c r="P80">
+        <v>96.58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="E81">
+        <v>0.92574252849953786</v>
+      </c>
+      <c r="F81">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="G81">
+        <v>0.92571876580030332</v>
+      </c>
+      <c r="H81">
+        <v>0.72437142433562418</v>
+      </c>
+      <c r="I81">
+        <v>7.4175824175824176E-2</v>
+      </c>
+      <c r="J81">
+        <v>0.69556732645664909</v>
+      </c>
+      <c r="K81">
+        <v>0.97507976334293589</v>
+      </c>
+      <c r="L81">
+        <v>138</v>
+      </c>
+      <c r="M81">
+        <v>15</v>
+      </c>
+      <c r="N81">
+        <v>12</v>
+      </c>
+      <c r="O81">
+        <v>199</v>
+      </c>
+      <c r="P81">
+        <v>90.53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="E82">
+        <v>0.91512882973279019</v>
+      </c>
+      <c r="F82">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="G82">
+        <v>0.91491925604075142</v>
+      </c>
+      <c r="H82">
+        <v>0.68745555809505043</v>
+      </c>
+      <c r="I82">
+        <v>8.5164835164835168E-2</v>
+      </c>
+      <c r="J82">
+        <v>0.65381193434575846</v>
+      </c>
+      <c r="K82">
+        <v>0.97444393311857647</v>
+      </c>
+      <c r="L82">
+        <v>145</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <v>17</v>
+      </c>
+      <c r="O82">
+        <v>188</v>
+      </c>
+      <c r="P82">
+        <v>89.46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="E83">
+        <v>0.99816966775896177</v>
+      </c>
+      <c r="F83">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="G83">
+        <v>0.99816316887716994</v>
+      </c>
+      <c r="H83">
+        <v>0.99266029280353862</v>
+      </c>
+      <c r="I83">
+        <v>1.8365472910927461E-3</v>
+      </c>
+      <c r="J83">
+        <v>0.99260441426146007</v>
+      </c>
+      <c r="K83">
+        <v>0.99999320882852294</v>
+      </c>
+      <c r="L83">
+        <v>498</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>589</v>
+      </c>
+      <c r="P83">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>0.89560439560439564</v>
+      </c>
+      <c r="E84">
+        <v>0.89546533744836132</v>
+      </c>
+      <c r="F84">
+        <v>0.89560439560439564</v>
+      </c>
+      <c r="G84">
+        <v>0.89550720505909187</v>
+      </c>
+      <c r="H84">
+        <v>0.62475669265868772</v>
+      </c>
+      <c r="I84">
+        <v>0.1043956043956044</v>
+      </c>
+      <c r="J84">
+        <v>0.57153920019824689</v>
+      </c>
+      <c r="K84">
+        <v>0.96268934113929938</v>
+      </c>
+      <c r="L84">
+        <v>133</v>
+      </c>
+      <c r="M84">
+        <v>20</v>
+      </c>
+      <c r="N84">
+        <v>18</v>
+      </c>
+      <c r="O84">
+        <v>193</v>
+      </c>
+      <c r="P84">
+        <v>86.84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85">
+        <v>0.91208791208791207</v>
+      </c>
+      <c r="E85">
+        <v>0.91226207932140668</v>
+      </c>
+      <c r="F85">
+        <v>0.91208791208791207</v>
+      </c>
+      <c r="G85">
+        <v>0.91214716655893124</v>
+      </c>
+      <c r="H85">
+        <v>0.67833703333294904</v>
+      </c>
+      <c r="I85">
+        <v>8.7912087912087919E-2</v>
+      </c>
+      <c r="J85">
+        <v>0.64264457738917002</v>
+      </c>
+      <c r="K85">
+        <v>0.96066881423531214</v>
+      </c>
+      <c r="L85">
+        <v>144</v>
+      </c>
+      <c r="M85">
+        <v>15</v>
+      </c>
+      <c r="N85">
+        <v>17</v>
+      </c>
+      <c r="O85">
+        <v>188</v>
+      </c>
+      <c r="P85">
+        <v>88.94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>487</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>602</v>
+      </c>
+      <c r="P86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E87">
+        <v>0.9566772651037716</v>
+      </c>
+      <c r="F87">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G87">
+        <v>0.95610002242655301</v>
+      </c>
+      <c r="H87">
+        <v>0.83144036840664592</v>
+      </c>
+      <c r="I87">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J87">
+        <v>0.8226282929800518</v>
+      </c>
+      <c r="K87">
+        <v>0.99034566773260235</v>
+      </c>
+      <c r="L87">
+        <v>160</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
+        <v>11</v>
+      </c>
+      <c r="O87">
+        <v>188</v>
+      </c>
+      <c r="P87">
+        <v>94.69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E88">
+        <v>0.96166173570019731</v>
+      </c>
+      <c r="F88">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G88">
+        <v>0.96148174057723024</v>
+      </c>
+      <c r="H88">
+        <v>0.85163222781236347</v>
+      </c>
+      <c r="I88">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="J88">
+        <v>0.84387254901960773</v>
+      </c>
+      <c r="K88">
+        <v>0.98670343137254901</v>
+      </c>
+      <c r="L88">
+        <v>151</v>
+      </c>
+      <c r="M88">
+        <v>9</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>199</v>
+      </c>
+      <c r="P88">
+        <v>94.98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>0.97887970615243347</v>
+      </c>
+      <c r="E89">
+        <v>0.97903974928597548</v>
+      </c>
+      <c r="F89">
+        <v>0.97887970615243347</v>
+      </c>
+      <c r="G89">
+        <v>0.97889259834474718</v>
+      </c>
+      <c r="H89">
+        <v>0.91722549165337575</v>
+      </c>
+      <c r="I89">
+        <v>2.1120293847566571E-2</v>
+      </c>
+      <c r="J89">
+        <v>0.91495076400679121</v>
+      </c>
+      <c r="K89">
+        <v>0.99787606112054339</v>
+      </c>
+      <c r="L89">
+        <v>493</v>
+      </c>
+      <c r="M89">
+        <v>7</v>
+      </c>
+      <c r="N89">
+        <v>16</v>
+      </c>
+      <c r="O89">
+        <v>573</v>
+      </c>
+      <c r="P89">
+        <v>97.47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="E90">
+        <v>0.92577063576939433</v>
+      </c>
+      <c r="F90">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="G90">
+        <v>0.92579025439157991</v>
+      </c>
+      <c r="H90">
+        <v>0.72439492892731439</v>
+      </c>
+      <c r="I90">
+        <v>7.4175824175824176E-2</v>
+      </c>
+      <c r="J90">
+        <v>0.69556732645664909</v>
+      </c>
+      <c r="K90">
+        <v>0.97334510423442677</v>
+      </c>
+      <c r="L90">
+        <v>139</v>
+      </c>
+      <c r="M90">
+        <v>14</v>
+      </c>
+      <c r="N90">
+        <v>13</v>
+      </c>
+      <c r="O90">
+        <v>198</v>
+      </c>
+      <c r="P90">
+        <v>90.57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>0.91758241758241754</v>
+      </c>
+      <c r="E91">
+        <v>0.918017778699035</v>
+      </c>
+      <c r="F91">
+        <v>0.91758241758241754</v>
+      </c>
+      <c r="G91">
+        <v>0.91768833008927253</v>
+      </c>
+      <c r="H91">
+        <v>0.69663409115020114</v>
+      </c>
+      <c r="I91">
+        <v>8.2417582417582416E-2</v>
+      </c>
+      <c r="J91">
+        <v>0.6649792913023469</v>
+      </c>
+      <c r="K91">
+        <v>0.9723884031293144</v>
+      </c>
+      <c r="L91">
+        <v>146</v>
+      </c>
+      <c r="M91">
+        <v>13</v>
+      </c>
+      <c r="N91">
+        <v>17</v>
+      </c>
+      <c r="O91">
+        <v>188</v>
+      </c>
+      <c r="P91">
+        <v>89.79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>487</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>602</v>
+      </c>
+      <c r="P92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E93">
+        <v>0.96184190562888783</v>
+      </c>
+      <c r="F93">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G93">
+        <v>0.9615735339161583</v>
+      </c>
+      <c r="H93">
+        <v>0.85166138851702666</v>
+      </c>
+      <c r="I93">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="J93">
+        <v>0.84479975635754534</v>
+      </c>
+      <c r="K93">
+        <v>0.99412212578041725</v>
+      </c>
+      <c r="L93">
+        <v>160</v>
+      </c>
+      <c r="M93">
+        <v>5</v>
+      </c>
+      <c r="N93">
+        <v>9</v>
+      </c>
+      <c r="O93">
+        <v>190</v>
+      </c>
+      <c r="P93">
+        <v>95.34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E94">
+        <v>0.96434175996624072</v>
+      </c>
+      <c r="F94">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G94">
+        <v>0.96424706335134847</v>
+      </c>
+      <c r="H94">
+        <v>0.8618388353496611</v>
+      </c>
+      <c r="I94">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J94">
+        <v>0.85502450980392153</v>
+      </c>
+      <c r="K94">
+        <v>0.98743872549019607</v>
+      </c>
+      <c r="L94">
+        <v>152</v>
+      </c>
+      <c r="M94">
+        <v>8</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94">
+        <v>199</v>
+      </c>
+      <c r="P94">
+        <v>95.36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95">
+        <v>0.95316804407713496</v>
+      </c>
+      <c r="E95">
+        <v>0.95316250467971475</v>
+      </c>
+      <c r="F95">
+        <v>0.95316804407713496</v>
+      </c>
+      <c r="G95">
+        <v>0.95316446554013057</v>
+      </c>
+      <c r="H95">
+        <v>0.82127473612167834</v>
+      </c>
+      <c r="I95">
+        <v>4.6831955922865022E-2</v>
+      </c>
+      <c r="J95">
+        <v>0.81141256366723269</v>
+      </c>
+      <c r="K95">
+        <v>0.99241256366723274</v>
+      </c>
+      <c r="L95">
+        <v>474</v>
+      </c>
+      <c r="M95">
+        <v>26</v>
+      </c>
+      <c r="N95">
+        <v>25</v>
+      </c>
+      <c r="O95">
+        <v>564</v>
+      </c>
+      <c r="P95">
+        <v>94.18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="E96">
+        <v>0.93686818686818685</v>
+      </c>
+      <c r="F96">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="G96">
+        <v>0.93665832560772921</v>
+      </c>
+      <c r="H96">
+        <v>0.76239683555042526</v>
+      </c>
+      <c r="I96">
+        <v>6.3186813186813184E-2</v>
+      </c>
+      <c r="J96">
+        <v>0.74066846327788616</v>
+      </c>
+      <c r="K96">
+        <v>0.97150202893163595</v>
+      </c>
+      <c r="L96">
+        <v>139</v>
+      </c>
+      <c r="M96">
+        <v>14</v>
+      </c>
+      <c r="N96">
+        <v>9</v>
+      </c>
+      <c r="O96">
+        <v>202</v>
+      </c>
+      <c r="P96">
+        <v>91.74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="E97">
+        <v>0.91544994639506838</v>
+      </c>
+      <c r="F97">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="G97">
+        <v>0.914968626526934</v>
+      </c>
+      <c r="H97">
+        <v>0.68746509360817043</v>
+      </c>
+      <c r="I97">
+        <v>8.5164835164835168E-2</v>
+      </c>
+      <c r="J97">
+        <v>0.65381193434575846</v>
+      </c>
+      <c r="K97">
+        <v>0.97633072557140665</v>
+      </c>
+      <c r="L97">
+        <v>146</v>
+      </c>
+      <c r="M97">
+        <v>13</v>
+      </c>
+      <c r="N97">
+        <v>18</v>
+      </c>
+      <c r="O97">
+        <v>187</v>
+      </c>
+      <c r="P97">
+        <v>89.55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>487</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>602</v>
+      </c>
+      <c r="P98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E99">
+        <v>0.96184190562888783</v>
+      </c>
+      <c r="F99">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G99">
+        <v>0.9615735339161583</v>
+      </c>
+      <c r="H99">
+        <v>0.85166138851702666</v>
+      </c>
+      <c r="I99">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="J99">
+        <v>0.84479975635754534</v>
+      </c>
+      <c r="K99">
+        <v>0.99412212578041725</v>
+      </c>
+      <c r="L99">
+        <v>160</v>
+      </c>
+      <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="N99">
+        <v>9</v>
+      </c>
+      <c r="O99">
+        <v>190</v>
+      </c>
+      <c r="P99">
+        <v>95.34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E100">
+        <v>0.96434175996624072</v>
+      </c>
+      <c r="F100">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G100">
+        <v>0.96424706335134847</v>
+      </c>
+      <c r="H100">
+        <v>0.8618388353496611</v>
+      </c>
+      <c r="I100">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J100">
+        <v>0.85502450980392153</v>
+      </c>
+      <c r="K100">
+        <v>0.98743872549019607</v>
+      </c>
+      <c r="L100">
+        <v>152</v>
+      </c>
+      <c r="M100">
+        <v>8</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100">
+        <v>199</v>
+      </c>
+      <c r="P100">
+        <v>95.36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>0.9614325068870524</v>
+      </c>
+      <c r="E101">
+        <v>0.96164689201734455</v>
+      </c>
+      <c r="F101">
+        <v>0.9614325068870524</v>
+      </c>
+      <c r="G101">
+        <v>0.96145833450094687</v>
+      </c>
+      <c r="H101">
+        <v>0.85154085692516668</v>
+      </c>
+      <c r="I101">
+        <v>3.8567493112947659E-2</v>
+      </c>
+      <c r="J101">
+        <v>0.84469269949066217</v>
+      </c>
+      <c r="K101">
+        <v>0.99437691001697781</v>
+      </c>
+      <c r="L101">
+        <v>484</v>
+      </c>
+      <c r="M101">
+        <v>16</v>
+      </c>
+      <c r="N101">
+        <v>26</v>
+      </c>
+      <c r="O101">
+        <v>563</v>
+      </c>
+      <c r="P101">
+        <v>95.31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102">
+        <v>0.90934065934065933</v>
+      </c>
+      <c r="E102">
+        <v>0.90943461300604156</v>
+      </c>
+      <c r="F102">
+        <v>0.90934065934065933</v>
+      </c>
+      <c r="G102">
+        <v>0.90938064156398035</v>
+      </c>
+      <c r="H102">
+        <v>0.66917308998534142</v>
+      </c>
+      <c r="I102">
+        <v>9.0659340659340656E-2</v>
+      </c>
+      <c r="J102">
+        <v>0.62791562122479327</v>
+      </c>
+      <c r="K102">
+        <v>0.96739770157668126</v>
+      </c>
+      <c r="L102">
+        <v>137</v>
+      </c>
+      <c r="M102">
+        <v>16</v>
+      </c>
+      <c r="N102">
+        <v>17</v>
+      </c>
+      <c r="O102">
+        <v>194</v>
+      </c>
+      <c r="P102">
+        <v>88.61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="E103">
+        <v>0.91587077581053489</v>
+      </c>
+      <c r="F103">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="G103">
+        <v>0.91501267962806432</v>
+      </c>
+      <c r="H103">
+        <v>0.68747362488988351</v>
+      </c>
+      <c r="I103">
+        <v>8.5164835164835168E-2</v>
+      </c>
+      <c r="J103">
+        <v>0.65381193434575846</v>
+      </c>
+      <c r="K103">
+        <v>0.97085442552538737</v>
+      </c>
+      <c r="L103">
+        <v>147</v>
+      </c>
+      <c r="M103">
+        <v>12</v>
+      </c>
+      <c r="N103">
+        <v>19</v>
+      </c>
+      <c r="O103">
+        <v>186</v>
+      </c>
+      <c r="P103">
+        <v>89.55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104">
+        <v>0.96326905417814512</v>
+      </c>
+      <c r="E104">
+        <v>0.96328976697632585</v>
+      </c>
+      <c r="F104">
+        <v>0.96326905417814512</v>
+      </c>
+      <c r="G104">
+        <v>0.9632761301527466</v>
+      </c>
+      <c r="H104">
+        <v>0.85832902990280069</v>
+      </c>
+      <c r="I104">
+        <v>3.6730945821854911E-2</v>
+      </c>
+      <c r="J104">
+        <v>0.85141929366178448</v>
+      </c>
+      <c r="K104">
+        <v>0.9933657145585898</v>
+      </c>
+      <c r="L104">
+        <v>468</v>
+      </c>
+      <c r="M104">
+        <v>19</v>
+      </c>
+      <c r="N104">
+        <v>21</v>
+      </c>
+      <c r="O104">
+        <v>581</v>
+      </c>
+      <c r="P104">
+        <v>95.43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="E105">
+        <v>0.94066057115719681</v>
+      </c>
+      <c r="F105">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="G105">
+        <v>0.93965580770314494</v>
+      </c>
+      <c r="H105">
+        <v>0.77222818553132355</v>
+      </c>
+      <c r="I105">
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="J105">
+        <v>0.75611390284757118</v>
+      </c>
+      <c r="K105">
+        <v>0.98946246383432312</v>
+      </c>
+      <c r="L105">
+        <v>158</v>
+      </c>
+      <c r="M105">
+        <v>7</v>
+      </c>
+      <c r="N105">
+        <v>15</v>
+      </c>
+      <c r="O105">
+        <v>184</v>
+      </c>
+      <c r="P105">
+        <v>92.77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E106">
+        <v>0.94518322406111177</v>
+      </c>
+      <c r="F106">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="G106">
+        <v>0.94509024922389673</v>
+      </c>
+      <c r="H106">
+        <v>0.7917002464687356</v>
+      </c>
+      <c r="I106">
+        <v>5.4945054945054937E-2</v>
+      </c>
+      <c r="J106">
+        <v>0.77696078431372539</v>
+      </c>
+      <c r="K106">
+        <v>0.9887561274509804</v>
+      </c>
+      <c r="L106">
+        <v>151</v>
+      </c>
+      <c r="M106">
+        <v>9</v>
+      </c>
+      <c r="N106">
+        <v>11</v>
+      </c>
+      <c r="O106">
+        <v>193</v>
+      </c>
+      <c r="P106">
+        <v>93.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9057D0-DBF9-4FE2-A1E9-32FD22303431}">
+  <dimension ref="A1:P63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>0.92194674012855826</v>
+      </c>
+      <c r="E2">
+        <v>0.92201629859282974</v>
+      </c>
+      <c r="F2">
+        <v>0.92194674012855826</v>
+      </c>
+      <c r="G2">
+        <v>0.92197443289273717</v>
+      </c>
+      <c r="H2">
+        <v>0.71182554021897138</v>
+      </c>
+      <c r="I2">
+        <v>7.8053259871441696E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.68246372337141081</v>
+      </c>
+      <c r="K2">
+        <v>0.92097869712874347</v>
+      </c>
+      <c r="L2">
+        <v>433</v>
+      </c>
+      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="N2">
+        <v>44</v>
+      </c>
+      <c r="O2">
+        <v>571</v>
+      </c>
+      <c r="P2">
+        <v>89.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0.87087912087912089</v>
+      </c>
+      <c r="E3">
+        <v>0.87149304606854627</v>
+      </c>
+      <c r="F3">
+        <v>0.87087912087912089</v>
+      </c>
+      <c r="G3">
+        <v>0.87102132989110304</v>
+      </c>
+      <c r="H3">
+        <v>0.54896184764188527</v>
+      </c>
+      <c r="I3">
+        <v>0.12912087912087911</v>
+      </c>
+      <c r="J3">
+        <v>0.47897061062890212</v>
+      </c>
+      <c r="K3">
+        <v>0.8710370031978073</v>
+      </c>
+      <c r="L3">
+        <v>144</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <v>173</v>
+      </c>
+      <c r="P3">
+        <v>83.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0.56473829201101933</v>
+      </c>
+      <c r="E4">
+        <v>0.31892933846352328</v>
+      </c>
+      <c r="F4">
+        <v>0.56473829201101933</v>
+      </c>
+      <c r="G4">
+        <v>0.40764559810654571</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.43526170798898067</v>
+      </c>
+      <c r="J4">
+        <v>-0.77073170731707363</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>474</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>615</v>
+      </c>
+      <c r="P4">
+        <v>37.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0.54670329670329665</v>
+      </c>
+      <c r="E5">
+        <v>0.29888449462625277</v>
+      </c>
+      <c r="F5">
+        <v>0.54670329670329665</v>
+      </c>
+      <c r="G5">
+        <v>0.38647941756289889</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.4532967032967033</v>
+      </c>
+      <c r="J5">
+        <v>-0.82914572864321578</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>165</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>199</v>
+      </c>
+      <c r="P5">
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="E6">
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="F6">
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="G6">
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="H6">
+        <v>0.8112703334311353</v>
+      </c>
+      <c r="I6">
+        <v>4.9586776859504127E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.79836790673752789</v>
+      </c>
+      <c r="K6">
+        <v>0.949591976684382</v>
+      </c>
+      <c r="L6">
+        <v>448</v>
+      </c>
+      <c r="M6">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>587</v>
+      </c>
+      <c r="P6">
+        <v>93.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E7">
+        <v>0.95620695909458486</v>
+      </c>
+      <c r="F7">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G7">
+        <v>0.95600927671933589</v>
+      </c>
+      <c r="H7">
+        <v>0.83144066499928437</v>
+      </c>
+      <c r="I7">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.82353119413386655</v>
+      </c>
+      <c r="K7">
+        <v>0.95521619246735134</v>
+      </c>
+      <c r="L7">
+        <v>161</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>187</v>
+      </c>
+      <c r="P7">
+        <v>93.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>0.88062442607897151</v>
+      </c>
+      <c r="E8">
+        <v>0.88461703445817563</v>
+      </c>
+      <c r="F8">
+        <v>0.88062442607897151</v>
+      </c>
+      <c r="G8">
+        <v>0.87921245198766296</v>
+      </c>
+      <c r="H8">
+        <v>0.57871746290941217</v>
+      </c>
+      <c r="I8">
+        <v>0.1193755739210285</v>
+      </c>
+      <c r="J8">
+        <v>0.51458940510886342</v>
+      </c>
+      <c r="K8">
+        <v>0.87078347334133377</v>
+      </c>
+      <c r="L8">
+        <v>377</v>
+      </c>
+      <c r="M8">
+        <v>98</v>
+      </c>
+      <c r="N8">
+        <v>32</v>
+      </c>
+      <c r="O8">
+        <v>582</v>
+      </c>
+      <c r="P8">
+        <v>83.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="E9">
+        <v>0.89303230705945646</v>
+      </c>
+      <c r="F9">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="G9">
+        <v>0.88337274282995704</v>
+      </c>
+      <c r="H9">
+        <v>0.59057513030575504</v>
+      </c>
+      <c r="I9">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="J9">
+        <v>0.53676938460139989</v>
+      </c>
+      <c r="K9">
+        <v>0.87952610368754347</v>
+      </c>
+      <c r="L9">
+        <v>136</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>186</v>
+      </c>
+      <c r="P9">
+        <v>84.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0.92470156106519741</v>
+      </c>
+      <c r="E10">
+        <v>0.92470156106519741</v>
+      </c>
+      <c r="F10">
+        <v>0.92470156106519741</v>
+      </c>
+      <c r="G10">
+        <v>0.92470156106519741</v>
+      </c>
+      <c r="H10">
+        <v>0.72115953281006973</v>
+      </c>
+      <c r="I10">
+        <v>7.5298438934802578E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.69367088607594929</v>
+      </c>
+      <c r="K10">
+        <v>0.92341772151898738</v>
+      </c>
+      <c r="L10">
+        <v>433</v>
+      </c>
+      <c r="M10">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>41</v>
+      </c>
+      <c r="O10">
+        <v>574</v>
+      </c>
+      <c r="P10">
+        <v>89.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>0.84890109890109888</v>
+      </c>
+      <c r="E11">
+        <v>0.84883342267488615</v>
+      </c>
+      <c r="F11">
+        <v>0.84890109890109888</v>
+      </c>
+      <c r="G11">
+        <v>0.84886081230666077</v>
+      </c>
+      <c r="H11">
+        <v>0.4854927326432002</v>
+      </c>
+      <c r="I11">
+        <v>0.15109890109890109</v>
+      </c>
+      <c r="J11">
+        <v>0.39028475711892813</v>
+      </c>
+      <c r="K11">
+        <v>0.84731231917161565</v>
+      </c>
+      <c r="L11">
+        <v>137</v>
+      </c>
+      <c r="M11">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>27</v>
+      </c>
+      <c r="O11">
+        <v>172</v>
+      </c>
+      <c r="P11">
+        <v>80.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="E12">
+        <v>0.88484686230818332</v>
+      </c>
+      <c r="F12">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="G12">
+        <v>0.88448943415589865</v>
+      </c>
+      <c r="H12">
+        <v>0.59059172972025509</v>
+      </c>
+      <c r="I12">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="J12">
+        <v>0.53733014556789638</v>
+      </c>
+      <c r="K12">
+        <v>0.88351541930212152</v>
+      </c>
+      <c r="L12">
+        <v>149</v>
+      </c>
+      <c r="M12">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>173</v>
+      </c>
+      <c r="P12">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0.95224977043158865</v>
+      </c>
+      <c r="E13">
+        <v>0.95222902490120465</v>
+      </c>
+      <c r="F13">
+        <v>0.95224977043158865</v>
+      </c>
+      <c r="G13">
+        <v>0.95222633517847821</v>
+      </c>
+      <c r="H13">
+        <v>0.81790372101095343</v>
+      </c>
+      <c r="I13">
+        <v>4.7750229568411393E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.80583576204354535</v>
+      </c>
+      <c r="K13">
+        <v>0.95098234184810559</v>
+      </c>
+      <c r="L13">
+        <v>447</v>
+      </c>
+      <c r="M13">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>24</v>
+      </c>
+      <c r="O13">
+        <v>590</v>
+      </c>
+      <c r="P13">
+        <v>93.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="E14">
+        <v>0.95337379457277427</v>
+      </c>
+      <c r="F14">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="G14">
+        <v>0.95327014137442501</v>
+      </c>
+      <c r="H14">
+        <v>0.82142048771843379</v>
+      </c>
+      <c r="I14">
+        <v>4.6703296703296697E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.81250189376723325</v>
+      </c>
+      <c r="K14">
+        <v>0.95262551889222191</v>
+      </c>
+      <c r="L14">
+        <v>161</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <v>186</v>
+      </c>
+      <c r="P14">
+        <v>93.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="E15">
+        <v>0.93418273902967797</v>
+      </c>
+      <c r="F15">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="G15">
+        <v>0.93409599610395988</v>
+      </c>
+      <c r="H15">
+        <v>0.75297037626036167</v>
+      </c>
+      <c r="I15">
+        <v>6.5934065934065936E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.73420956553486683</v>
+      </c>
+      <c r="K15">
+        <v>0.93403918705123523</v>
+      </c>
+      <c r="L15">
+        <v>155</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>185</v>
+      </c>
+      <c r="P15">
+        <v>91.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="E16">
+        <v>0.95044799088059273</v>
+      </c>
+      <c r="F16">
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="G16">
+        <v>0.9503488479831107</v>
+      </c>
+      <c r="H16">
+        <v>0.81125228067002497</v>
+      </c>
+      <c r="I16">
+        <v>4.9586776859504127E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.7982710713183081</v>
+      </c>
+      <c r="K16">
+        <v>0.94835854687660814</v>
+      </c>
+      <c r="L16">
+        <v>442</v>
+      </c>
+      <c r="M16">
+        <v>32</v>
+      </c>
+      <c r="N16">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>593</v>
+      </c>
+      <c r="P16">
+        <v>93.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="E17">
+        <v>0.88539153783222502</v>
+      </c>
+      <c r="F17">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="G17">
+        <v>0.88476255886970179</v>
+      </c>
+      <c r="H17">
+        <v>0.59058899826355604</v>
+      </c>
+      <c r="I17">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="J17">
+        <v>0.53439926907263602</v>
+      </c>
+      <c r="K17">
+        <v>0.88515303791685696</v>
+      </c>
+      <c r="L17">
+        <v>147</v>
+      </c>
+      <c r="M17">
+        <v>18</v>
+      </c>
+      <c r="N17">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <v>175</v>
+      </c>
+      <c r="P17">
+        <v>85.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0.89835164835164838</v>
+      </c>
+      <c r="E18">
+        <v>0.89951707319694119</v>
+      </c>
+      <c r="F18">
+        <v>0.89835164835164838</v>
+      </c>
+      <c r="G18">
+        <v>0.89810535444578965</v>
+      </c>
+      <c r="H18">
+        <v>0.63373094365757598</v>
+      </c>
+      <c r="I18">
+        <v>0.10164835164835161</v>
+      </c>
+      <c r="J18">
+        <v>0.59240989014314682</v>
+      </c>
+      <c r="K18">
+        <v>0.8966044245377236</v>
+      </c>
+      <c r="L18">
+        <v>149</v>
+      </c>
+      <c r="M18">
+        <v>24</v>
+      </c>
+      <c r="N18">
+        <v>13</v>
+      </c>
+      <c r="O18">
+        <v>178</v>
+      </c>
+      <c r="P18">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>0.96418732782369143</v>
+      </c>
+      <c r="E19">
+        <v>0.96418443977369428</v>
+      </c>
+      <c r="F19">
+        <v>0.96418732782369143</v>
+      </c>
+      <c r="G19">
+        <v>0.96416519818422042</v>
+      </c>
+      <c r="H19">
+        <v>0.86171463592514808</v>
+      </c>
+      <c r="I19">
+        <v>3.5812672176308541E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.85437682153265904</v>
+      </c>
+      <c r="K19">
+        <v>0.96299845705468889</v>
+      </c>
+      <c r="L19">
+        <v>453</v>
+      </c>
+      <c r="M19">
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>597</v>
+      </c>
+      <c r="P19">
+        <v>95.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E20">
+        <v>0.96196717855009306</v>
+      </c>
+      <c r="F20">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G20">
+        <v>0.96148940345368927</v>
+      </c>
+      <c r="H20">
+        <v>0.85166268053027394</v>
+      </c>
+      <c r="I20">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.84558979486713326</v>
+      </c>
+      <c r="K20">
+        <v>0.96039753961761043</v>
+      </c>
+      <c r="L20">
+        <v>161</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>189</v>
+      </c>
+      <c r="P20">
+        <v>94.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="E21">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="F21">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="G21">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="H21">
+        <v>0.75296813496530857</v>
+      </c>
+      <c r="I21">
+        <v>6.5934065934065936E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.73420956553486683</v>
+      </c>
+      <c r="K21">
+        <v>0.93355239138371671</v>
+      </c>
+      <c r="L21">
+        <v>154</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21">
+        <v>186</v>
+      </c>
+      <c r="P21">
+        <v>91.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>0.98438934802571165</v>
+      </c>
+      <c r="E22">
+        <v>0.98439298227920968</v>
+      </c>
+      <c r="F22">
+        <v>0.98438934802571165</v>
+      </c>
+      <c r="G22">
+        <v>0.98438356027384999</v>
+      </c>
+      <c r="H22">
+        <v>0.93845876122059213</v>
+      </c>
+      <c r="I22">
+        <v>1.5610651974288341E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.93649274467428212</v>
+      </c>
+      <c r="K22">
+        <v>0.98376041988267993</v>
+      </c>
+      <c r="L22">
+        <v>464</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
+        <v>608</v>
+      </c>
+      <c r="P22">
+        <v>97.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>0.89010989010989006</v>
+      </c>
+      <c r="E23">
+        <v>0.89052604200533192</v>
+      </c>
+      <c r="F23">
+        <v>0.89010989010989006</v>
+      </c>
+      <c r="G23">
+        <v>0.89021009690330943</v>
+      </c>
+      <c r="H23">
+        <v>0.60765950922054413</v>
+      </c>
+      <c r="I23">
+        <v>0.1098901098901099</v>
+      </c>
+      <c r="J23">
+        <v>0.55657073245012945</v>
+      </c>
+      <c r="K23">
+        <v>0.89017816354499768</v>
+      </c>
+      <c r="L23">
+        <v>147</v>
+      </c>
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <v>22</v>
+      </c>
+      <c r="O23">
+        <v>177</v>
+      </c>
+      <c r="P23">
+        <v>85.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>0.90659340659340659</v>
+      </c>
+      <c r="E24">
+        <v>0.90659174174309154</v>
+      </c>
+      <c r="F24">
+        <v>0.90659340659340659</v>
+      </c>
+      <c r="G24">
+        <v>0.90656512213561646</v>
+      </c>
+      <c r="H24">
+        <v>0.66033975372311582</v>
+      </c>
+      <c r="I24">
+        <v>9.3406593406593408E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.62545773688829698</v>
+      </c>
+      <c r="K24">
+        <v>0.90609206185878999</v>
+      </c>
+      <c r="L24">
+        <v>155</v>
+      </c>
+      <c r="M24">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>16</v>
+      </c>
+      <c r="O24">
+        <v>175</v>
+      </c>
+      <c r="P24">
+        <v>87.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>0.99449035812672182</v>
+      </c>
+      <c r="E25">
+        <v>0.99451227721813118</v>
+      </c>
+      <c r="F25">
+        <v>0.99449035812672182</v>
+      </c>
+      <c r="G25">
+        <v>0.99448765405905526</v>
+      </c>
+      <c r="H25">
+        <v>0.97805686483067233</v>
+      </c>
+      <c r="I25">
+        <v>5.5096418732782371E-3</v>
+      </c>
+      <c r="J25">
+        <v>0.97759643408194752</v>
+      </c>
+      <c r="K25">
+        <v>0.99392250985770614</v>
+      </c>
+      <c r="L25">
+        <v>470</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>613</v>
+      </c>
+      <c r="P25">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>0.97802197802197799</v>
+      </c>
+      <c r="E26">
+        <v>0.97806532717775307</v>
+      </c>
+      <c r="F26">
+        <v>0.97802197802197799</v>
+      </c>
+      <c r="G26">
+        <v>0.97801398116740745</v>
+      </c>
+      <c r="H26">
+        <v>0.91378300162075754</v>
+      </c>
+      <c r="I26">
+        <v>2.197802197802198E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.91176559706693328</v>
+      </c>
+      <c r="K26">
+        <v>0.97760809623367573</v>
+      </c>
+      <c r="L26">
+        <v>166</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>190</v>
+      </c>
+      <c r="P26">
+        <v>96.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E27">
+        <v>0.94505561511659075</v>
+      </c>
+      <c r="F27">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="G27">
+        <v>0.94502649779031689</v>
+      </c>
+      <c r="H27">
+        <v>0.79171608971794472</v>
+      </c>
+      <c r="I27">
+        <v>5.4945054945054937E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.77850797127905569</v>
+      </c>
+      <c r="K27">
+        <v>0.9441401971522454</v>
+      </c>
+      <c r="L27">
+        <v>155</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>189</v>
+      </c>
+      <c r="P27">
+        <v>92.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>0.93112947658402201</v>
+      </c>
+      <c r="E28">
+        <v>0.93121307292430289</v>
+      </c>
+      <c r="F28">
+        <v>0.93112947658402201</v>
+      </c>
+      <c r="G28">
+        <v>0.9309907376843346</v>
+      </c>
+      <c r="H28">
+        <v>0.74315794894370901</v>
+      </c>
+      <c r="I28">
+        <v>6.8870523415977963E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.71982093238653899</v>
+      </c>
+      <c r="K28">
+        <v>0.92814140166718107</v>
+      </c>
+      <c r="L28">
+        <v>429</v>
+      </c>
+      <c r="M28">
+        <v>45</v>
+      </c>
+      <c r="N28">
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <v>585</v>
+      </c>
+      <c r="P28">
+        <v>90.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>0.89010989010989006</v>
+      </c>
+      <c r="E29">
+        <v>0.89052604200533192</v>
+      </c>
+      <c r="F29">
+        <v>0.89010989010989006</v>
+      </c>
+      <c r="G29">
+        <v>0.89021009690330943</v>
+      </c>
+      <c r="H29">
+        <v>0.60765950922054413</v>
+      </c>
+      <c r="I29">
+        <v>0.1098901098901099</v>
+      </c>
+      <c r="J29">
+        <v>0.55657073245012945</v>
+      </c>
+      <c r="K29">
+        <v>0.89017816354499768</v>
+      </c>
+      <c r="L29">
+        <v>147</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>22</v>
+      </c>
+      <c r="O29">
+        <v>177</v>
+      </c>
+      <c r="P29">
+        <v>85.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="E30">
+        <v>0.90387764146102534</v>
+      </c>
+      <c r="F30">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="G30">
+        <v>0.90380028135130186</v>
+      </c>
+      <c r="H30">
+        <v>0.65140936617878675</v>
+      </c>
+      <c r="I30">
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="J30">
+        <v>0.614441787973247</v>
+      </c>
+      <c r="K30">
+        <v>0.90320188844838545</v>
+      </c>
+      <c r="L30">
+        <v>154</v>
+      </c>
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>16</v>
+      </c>
+      <c r="O30">
+        <v>175</v>
+      </c>
+      <c r="P30">
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>475</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>614</v>
+      </c>
+      <c r="P31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E32">
+        <v>0.96721601144227975</v>
+      </c>
+      <c r="F32">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G32">
+        <v>0.96700695753950183</v>
+      </c>
+      <c r="H32">
+        <v>0.87212740103393982</v>
+      </c>
+      <c r="I32">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J32">
+        <v>0.86764839560039997</v>
+      </c>
+      <c r="K32">
+        <v>0.96624549283398475</v>
+      </c>
+      <c r="L32">
+        <v>163</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>189</v>
+      </c>
+      <c r="P32">
+        <v>95.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E33">
+        <v>0.94505561511659075</v>
+      </c>
+      <c r="F33">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="G33">
+        <v>0.94502649779031689</v>
+      </c>
+      <c r="H33">
+        <v>0.79171608971794472</v>
+      </c>
+      <c r="I33">
+        <v>5.4945054945054937E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.77850797127905569</v>
+      </c>
+      <c r="K33">
+        <v>0.9441401971522454</v>
+      </c>
+      <c r="L33">
+        <v>155</v>
+      </c>
+      <c r="M33">
+        <v>11</v>
+      </c>
+      <c r="N33">
+        <v>9</v>
+      </c>
+      <c r="O33">
+        <v>189</v>
+      </c>
+      <c r="P33">
+        <v>92.57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>0.92102846648301195</v>
+      </c>
+      <c r="E34">
+        <v>0.92119459258957681</v>
+      </c>
+      <c r="F34">
+        <v>0.92102846648301195</v>
+      </c>
+      <c r="G34">
+        <v>0.92108324695853705</v>
+      </c>
+      <c r="H34">
+        <v>0.70873183301407261</v>
+      </c>
+      <c r="I34">
+        <v>7.897153351698806E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.67872800246989806</v>
+      </c>
+      <c r="K34">
+        <v>0.92040753318925594</v>
+      </c>
+      <c r="L34">
+        <v>434</v>
+      </c>
+      <c r="M34">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>46</v>
+      </c>
+      <c r="O34">
+        <v>569</v>
+      </c>
+      <c r="P34">
+        <v>89.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>0.85439560439560436</v>
+      </c>
+      <c r="E35">
+        <v>0.85448169634916615</v>
+      </c>
+      <c r="F35">
+        <v>0.85439560439560436</v>
+      </c>
+      <c r="G35">
+        <v>0.85443216976164227</v>
+      </c>
+      <c r="H35">
+        <v>0.50099919724888908</v>
+      </c>
+      <c r="I35">
+        <v>0.14560439560439559</v>
+      </c>
+      <c r="J35">
+        <v>0.41245622049642161</v>
+      </c>
+      <c r="K35">
+        <v>0.85337292523222164</v>
+      </c>
+      <c r="L35">
+        <v>139</v>
+      </c>
+      <c r="M35">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <v>27</v>
+      </c>
+      <c r="O35">
+        <v>172</v>
+      </c>
+      <c r="P35">
+        <v>81.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>0.89560439560439564</v>
+      </c>
+      <c r="E36">
+        <v>0.89568242408479104</v>
+      </c>
+      <c r="F36">
+        <v>0.89560439560439564</v>
+      </c>
+      <c r="G36">
+        <v>0.89553480486122983</v>
+      </c>
+      <c r="H36">
+        <v>0.6249813475985232</v>
+      </c>
+      <c r="I36">
+        <v>0.1043956043956044</v>
+      </c>
+      <c r="J36">
+        <v>0.58139394122809673</v>
+      </c>
+      <c r="K36">
+        <v>0.89480374058045575</v>
+      </c>
+      <c r="L36">
+        <v>152</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>17</v>
+      </c>
+      <c r="O36">
+        <v>174</v>
+      </c>
+      <c r="P36">
+        <v>86.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="E37">
+        <v>0.96601395214427843</v>
+      </c>
+      <c r="F37">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="G37">
+        <v>0.96601145929467658</v>
+      </c>
+      <c r="H37">
+        <v>0.86855830816838919</v>
+      </c>
+      <c r="I37">
+        <v>3.3976124885215793E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.86184467683867649</v>
+      </c>
+      <c r="K37">
+        <v>0.9651037202125835</v>
+      </c>
+      <c r="L37">
+        <v>455</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>17</v>
+      </c>
+      <c r="O37">
+        <v>597</v>
+      </c>
+      <c r="P37">
+        <v>95.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="E38">
+        <v>0.95356333759948209</v>
+      </c>
+      <c r="F38">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="G38">
+        <v>0.95324885410035709</v>
+      </c>
+      <c r="H38">
+        <v>0.82142019313381109</v>
+      </c>
+      <c r="I38">
+        <v>4.6703296703296697E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.81250189376723325</v>
+      </c>
+      <c r="K38">
+        <v>0.95229221585916424</v>
+      </c>
+      <c r="L38">
+        <v>160</v>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>187</v>
+      </c>
+      <c r="P38">
+        <v>93.59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E39">
+        <v>0.94779040055421959</v>
+      </c>
+      <c r="F39">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G39">
+        <v>0.94778908946342943</v>
+      </c>
+      <c r="H39">
+        <v>0.80155613286212879</v>
+      </c>
+      <c r="I39">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.7895825727151029</v>
+      </c>
+      <c r="K39">
+        <v>0.94715224534501652</v>
+      </c>
+      <c r="L39">
+        <v>156</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>189</v>
+      </c>
+      <c r="P39">
+        <v>92.96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>0.91460055096418735</v>
+      </c>
+      <c r="E40">
+        <v>0.91549925143140465</v>
+      </c>
+      <c r="F40">
+        <v>0.91460055096418735</v>
+      </c>
+      <c r="G40">
+        <v>0.91476959423341364</v>
+      </c>
+      <c r="H40">
+        <v>0.68724745529364595</v>
+      </c>
+      <c r="I40">
+        <v>8.5399449035812675E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.65257795615930836</v>
+      </c>
+      <c r="K40">
+        <v>0.91544200885046823</v>
+      </c>
+      <c r="L40">
+        <v>437</v>
+      </c>
+      <c r="M40">
+        <v>37</v>
+      </c>
+      <c r="N40">
+        <v>56</v>
+      </c>
+      <c r="O40">
+        <v>559</v>
+      </c>
+      <c r="P40">
+        <v>88.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>0.87087912087912089</v>
+      </c>
+      <c r="E41">
+        <v>0.87238537324744225</v>
+      </c>
+      <c r="F41">
+        <v>0.87087912087912089</v>
+      </c>
+      <c r="G41">
+        <v>0.87109942858742817</v>
+      </c>
+      <c r="H41">
+        <v>0.54896839506329653</v>
+      </c>
+      <c r="I41">
+        <v>0.12912087912087911</v>
+      </c>
+      <c r="J41">
+        <v>0.47897061062890212</v>
+      </c>
+      <c r="K41">
+        <v>0.87207248363027245</v>
+      </c>
+      <c r="L41">
+        <v>146</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>28</v>
+      </c>
+      <c r="O41">
+        <v>171</v>
+      </c>
+      <c r="P41">
+        <v>83.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>0.89010989010989006</v>
+      </c>
+      <c r="E42">
+        <v>0.89041799011888734</v>
+      </c>
+      <c r="F42">
+        <v>0.89010989010989006</v>
+      </c>
+      <c r="G42">
+        <v>0.89015640444211863</v>
+      </c>
+      <c r="H42">
+        <v>0.60766482490646812</v>
+      </c>
+      <c r="I42">
+        <v>0.1098901098901099</v>
+      </c>
+      <c r="J42">
+        <v>0.55936204339799656</v>
+      </c>
+      <c r="K42">
+        <v>0.89038525557606751</v>
+      </c>
+      <c r="L42">
+        <v>155</v>
+      </c>
+      <c r="M42">
+        <v>18</v>
+      </c>
+      <c r="N42">
+        <v>22</v>
+      </c>
+      <c r="O42">
+        <v>169</v>
+      </c>
+      <c r="P42">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="E43">
+        <v>0.95077551609973876</v>
+      </c>
+      <c r="F43">
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="G43">
+        <v>0.95047782458069552</v>
+      </c>
+      <c r="H43">
+        <v>0.81128527768888581</v>
+      </c>
+      <c r="I43">
+        <v>4.9586776859504127E-2</v>
+      </c>
+      <c r="J43">
+        <v>0.79836790673752789</v>
+      </c>
+      <c r="K43">
+        <v>0.95102177267272414</v>
+      </c>
+      <c r="L43">
+        <v>454</v>
+      </c>
+      <c r="M43">
+        <v>21</v>
+      </c>
+      <c r="N43">
+        <v>33</v>
+      </c>
+      <c r="O43">
+        <v>581</v>
+      </c>
+      <c r="P43">
+        <v>93.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E44">
+        <v>0.96156880594750416</v>
+      </c>
+      <c r="F44">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G44">
+        <v>0.96152446704296313</v>
+      </c>
+      <c r="H44">
+        <v>0.851663169923354</v>
+      </c>
+      <c r="I44">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="J44">
+        <v>0.84558979486713326</v>
+      </c>
+      <c r="K44">
+        <v>0.96106414568372567</v>
+      </c>
+      <c r="L44">
+        <v>163</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <v>187</v>
+      </c>
+      <c r="P44">
+        <v>94.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>0.93131868131868134</v>
+      </c>
+      <c r="E45">
+        <v>0.93326065758767662</v>
+      </c>
+      <c r="F45">
+        <v>0.93131868131868134</v>
+      </c>
+      <c r="G45">
+        <v>0.93143882356710339</v>
+      </c>
+      <c r="H45">
+        <v>0.74344094026911878</v>
+      </c>
+      <c r="I45">
+        <v>6.8681318681318687E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.72313496409881961</v>
+      </c>
+      <c r="K45">
+        <v>0.93346111719605707</v>
+      </c>
+      <c r="L45">
+        <v>159</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45">
+        <v>18</v>
+      </c>
+      <c r="O45">
+        <v>180</v>
+      </c>
+      <c r="P45">
+        <v>91.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>0.91276400367309463</v>
+      </c>
+      <c r="E46">
+        <v>0.91281502594085528</v>
+      </c>
+      <c r="F46">
+        <v>0.91276400367309463</v>
+      </c>
+      <c r="G46">
+        <v>0.91256217372923443</v>
+      </c>
+      <c r="H46">
+        <v>0.68107765423489308</v>
+      </c>
+      <c r="I46">
+        <v>8.7235996326905416E-2</v>
+      </c>
+      <c r="J46">
+        <v>0.64510651435628263</v>
+      </c>
+      <c r="K46">
+        <v>0.90922095296902339</v>
+      </c>
+      <c r="L46">
+        <v>418</v>
+      </c>
+      <c r="M46">
+        <v>56</v>
+      </c>
+      <c r="N46">
+        <v>39</v>
+      </c>
+      <c r="O46">
+        <v>576</v>
+      </c>
+      <c r="P46">
+        <v>88.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>0.87087912087912089</v>
+      </c>
+      <c r="E47">
+        <v>0.87238537324744225</v>
+      </c>
+      <c r="F47">
+        <v>0.87087912087912089</v>
+      </c>
+      <c r="G47">
+        <v>0.87109942858742817</v>
+      </c>
+      <c r="H47">
+        <v>0.54896839506329653</v>
+      </c>
+      <c r="I47">
+        <v>0.12912087912087911</v>
+      </c>
+      <c r="J47">
+        <v>0.47897061062890212</v>
+      </c>
+      <c r="K47">
+        <v>0.87207248363027245</v>
+      </c>
+      <c r="L47">
+        <v>146</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>28</v>
+      </c>
+      <c r="O47">
+        <v>171</v>
+      </c>
+      <c r="P47">
+        <v>83.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>0.89835164835164838</v>
+      </c>
+      <c r="E48">
+        <v>0.89908436076119003</v>
+      </c>
+      <c r="F48">
+        <v>0.89835164835164838</v>
+      </c>
+      <c r="G48">
+        <v>0.89816419208831588</v>
+      </c>
+      <c r="H48">
+        <v>0.63373068855381598</v>
+      </c>
+      <c r="I48">
+        <v>0.10164835164835161</v>
+      </c>
+      <c r="J48">
+        <v>0.59240989014314682</v>
+      </c>
+      <c r="K48">
+        <v>0.89687679690100774</v>
+      </c>
+      <c r="L48">
+        <v>150</v>
+      </c>
+      <c r="M48">
+        <v>23</v>
+      </c>
+      <c r="N48">
+        <v>14</v>
+      </c>
+      <c r="O48">
+        <v>177</v>
+      </c>
+      <c r="P48">
+        <v>86.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>0.94123048668503217</v>
+      </c>
+      <c r="E49">
+        <v>0.94124178471685815</v>
+      </c>
+      <c r="F49">
+        <v>0.94123048668503217</v>
+      </c>
+      <c r="G49">
+        <v>0.94115523956816605</v>
+      </c>
+      <c r="H49">
+        <v>0.77846439883395468</v>
+      </c>
+      <c r="I49">
+        <v>5.876951331496786E-2</v>
+      </c>
+      <c r="J49">
+        <v>0.76102863020744049</v>
+      </c>
+      <c r="K49">
+        <v>0.93906566089490828</v>
+      </c>
+      <c r="L49">
+        <v>438</v>
+      </c>
+      <c r="M49">
+        <v>37</v>
+      </c>
+      <c r="N49">
+        <v>27</v>
+      </c>
+      <c r="O49">
+        <v>587</v>
+      </c>
+      <c r="P49">
+        <v>91.97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E50">
+        <v>0.94926874595992239</v>
+      </c>
+      <c r="F50">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G50">
+        <v>0.94765800607574635</v>
+      </c>
+      <c r="H50">
+        <v>0.80155993017895599</v>
+      </c>
+      <c r="I50">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J50">
+        <v>0.79044329303396665</v>
+      </c>
+      <c r="K50">
+        <v>0.94577765657667479</v>
+      </c>
+      <c r="L50">
+        <v>156</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <v>189</v>
+      </c>
+      <c r="P50">
+        <v>92.69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="E51">
+        <v>0.93684060651371337</v>
+      </c>
+      <c r="F51">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="G51">
+        <v>0.93676264544925558</v>
+      </c>
+      <c r="H51">
+        <v>0.76256106855765105</v>
+      </c>
+      <c r="I51">
+        <v>6.3186813186813184E-2</v>
+      </c>
+      <c r="J51">
+        <v>0.74528416697091404</v>
+      </c>
+      <c r="K51">
+        <v>0.93559084824145067</v>
+      </c>
+      <c r="L51">
+        <v>153</v>
+      </c>
+      <c r="M51">
+        <v>13</v>
+      </c>
+      <c r="N51">
+        <v>10</v>
+      </c>
+      <c r="O51">
+        <v>188</v>
+      </c>
+      <c r="P51">
+        <v>91.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>0.98806244260789711</v>
+      </c>
+      <c r="E52">
+        <v>0.98806122924420059</v>
+      </c>
+      <c r="F52">
+        <v>0.98806244260789711</v>
+      </c>
+      <c r="G52">
+        <v>0.98806098850283963</v>
+      </c>
+      <c r="H52">
+        <v>0.95276418583096401</v>
+      </c>
+      <c r="I52">
+        <v>1.193755739210285E-2</v>
+      </c>
+      <c r="J52">
+        <v>0.95143562828033346</v>
+      </c>
+      <c r="K52">
+        <v>0.98773798497478638</v>
+      </c>
+      <c r="L52">
+        <v>467</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+      <c r="N52">
+        <v>6</v>
+      </c>
+      <c r="O52">
+        <v>609</v>
+      </c>
+      <c r="P52">
+        <v>98.36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>0.90934065934065933</v>
+      </c>
+      <c r="E53">
+        <v>0.90941809416074126</v>
+      </c>
+      <c r="F53">
+        <v>0.90934065934065933</v>
+      </c>
+      <c r="G53">
+        <v>0.90920568265481416</v>
+      </c>
+      <c r="H53">
+        <v>0.66930708700711583</v>
+      </c>
+      <c r="I53">
+        <v>9.0659340659340656E-2</v>
+      </c>
+      <c r="J53">
+        <v>0.63417085427135689</v>
+      </c>
+      <c r="K53">
+        <v>0.90724836302725753</v>
+      </c>
+      <c r="L53">
+        <v>146</v>
+      </c>
+      <c r="M53">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>14</v>
+      </c>
+      <c r="O53">
+        <v>185</v>
+      </c>
+      <c r="P53">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="E54">
+        <v>0.90383217799642213</v>
+      </c>
+      <c r="F54">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="G54">
+        <v>0.90383232766023103</v>
+      </c>
+      <c r="H54">
+        <v>0.65140922561536518</v>
+      </c>
+      <c r="I54">
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.614441787973247</v>
+      </c>
+      <c r="K54">
+        <v>0.90347426081166959</v>
+      </c>
+      <c r="L54">
+        <v>155</v>
+      </c>
+      <c r="M54">
+        <v>18</v>
+      </c>
+      <c r="N54">
+        <v>17</v>
+      </c>
+      <c r="O54">
+        <v>174</v>
+      </c>
+      <c r="P54">
+        <v>87.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="E55">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="F55">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="G55">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="H55">
+        <v>0.99265882456395216</v>
+      </c>
+      <c r="I55">
+        <v>1.8365472910927461E-3</v>
+      </c>
+      <c r="J55">
+        <v>0.99253214469398254</v>
+      </c>
+      <c r="K55">
+        <v>0.99813303617349558</v>
+      </c>
+      <c r="L55">
+        <v>474</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>613</v>
+      </c>
+      <c r="P55">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="E56">
+        <v>0.97041108281961941</v>
+      </c>
+      <c r="F56">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="G56">
+        <v>0.96973362363586824</v>
+      </c>
+      <c r="H56">
+        <v>0.88245012943645662</v>
+      </c>
+      <c r="I56">
+        <v>3.021978021978022E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.87867769596703327</v>
+      </c>
+      <c r="K56">
+        <v>0.96850286337605684</v>
+      </c>
+      <c r="L56">
+        <v>162</v>
+      </c>
+      <c r="M56">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>191</v>
+      </c>
+      <c r="P56">
+        <v>95.72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="E57">
+        <v>0.95933931078891954</v>
+      </c>
+      <c r="F57">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="G57">
+        <v>0.95870531453658014</v>
+      </c>
+      <c r="H57">
+        <v>0.84151161738821467</v>
+      </c>
+      <c r="I57">
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.83388097845929177</v>
+      </c>
+      <c r="K57">
+        <v>0.95676645977850783</v>
+      </c>
+      <c r="L57">
+        <v>155</v>
+      </c>
+      <c r="M57">
+        <v>11</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57">
+        <v>194</v>
+      </c>
+      <c r="P57">
+        <v>94.23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="E58">
+        <v>0.96604476494399361</v>
+      </c>
+      <c r="F58">
+        <v>0.96602387511478416</v>
+      </c>
+      <c r="G58">
+        <v>0.96599363563771379</v>
+      </c>
+      <c r="H58">
+        <v>0.86855198237451869</v>
+      </c>
+      <c r="I58">
+        <v>3.3976124885215793E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.86177832664402587</v>
+      </c>
+      <c r="K58">
+        <v>0.96459812699392822</v>
+      </c>
+      <c r="L58">
+        <v>452</v>
+      </c>
+      <c r="M58">
+        <v>22</v>
+      </c>
+      <c r="N58">
+        <v>15</v>
+      </c>
+      <c r="O58">
+        <v>600</v>
+      </c>
+      <c r="P58">
+        <v>95.31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="E59">
+        <v>0.90149771333203288</v>
+      </c>
+      <c r="F59">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="G59">
+        <v>0.90118908721297852</v>
+      </c>
+      <c r="H59">
+        <v>0.64253421951205125</v>
+      </c>
+      <c r="I59">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="J59">
+        <v>0.60091365920511652</v>
+      </c>
+      <c r="K59">
+        <v>0.90126389523374451</v>
+      </c>
+      <c r="L59">
+        <v>149</v>
+      </c>
+      <c r="M59">
+        <v>16</v>
+      </c>
+      <c r="N59">
+        <v>20</v>
+      </c>
+      <c r="O59">
+        <v>179</v>
+      </c>
+      <c r="P59">
+        <v>87.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="E60">
+        <v>0.90387764146102534</v>
+      </c>
+      <c r="F60">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="G60">
+        <v>0.90380028135130186</v>
+      </c>
+      <c r="H60">
+        <v>0.65140936617878675</v>
+      </c>
+      <c r="I60">
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="J60">
+        <v>0.614441787973247</v>
+      </c>
+      <c r="K60">
+        <v>0.90320188844838545</v>
+      </c>
+      <c r="L60">
+        <v>154</v>
+      </c>
+      <c r="M60">
+        <v>19</v>
+      </c>
+      <c r="N60">
+        <v>16</v>
+      </c>
+      <c r="O60">
+        <v>175</v>
+      </c>
+      <c r="P60">
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>0.98806244260789711</v>
+      </c>
+      <c r="E61">
+        <v>0.98817289430466582</v>
+      </c>
+      <c r="F61">
+        <v>0.98806244260789711</v>
+      </c>
+      <c r="G61">
+        <v>0.98804878230358351</v>
+      </c>
+      <c r="H61">
+        <v>0.95276197338387136</v>
+      </c>
+      <c r="I61">
+        <v>1.193755739210285E-2</v>
+      </c>
+      <c r="J61">
+        <v>0.95145894051088631</v>
+      </c>
+      <c r="K61">
+        <v>0.98679238813646497</v>
+      </c>
+      <c r="L61">
+        <v>464</v>
+      </c>
+      <c r="M61">
+        <v>11</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>612</v>
+      </c>
+      <c r="P61">
+        <v>98.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>0.97527472527472525</v>
+      </c>
+      <c r="E62">
+        <v>0.97592669525596354</v>
+      </c>
+      <c r="F62">
+        <v>0.97527472527472525</v>
+      </c>
+      <c r="G62">
+        <v>0.97523660115661925</v>
+      </c>
+      <c r="H62">
+        <v>0.90327792004879703</v>
+      </c>
+      <c r="I62">
+        <v>2.4725274725274721E-2</v>
+      </c>
+      <c r="J62">
+        <v>0.90073629670029998</v>
+      </c>
+      <c r="K62">
+        <v>0.97401751355937338</v>
+      </c>
+      <c r="L62">
+        <v>163</v>
+      </c>
+      <c r="M62">
+        <v>8</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>192</v>
+      </c>
+      <c r="P62">
+        <v>96.45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E63">
+        <v>0.95067302823078403</v>
+      </c>
+      <c r="F63">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G63">
+        <v>0.95049517555615126</v>
+      </c>
+      <c r="H63">
+        <v>0.81145245618199202</v>
+      </c>
+      <c r="I63">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J63">
+        <v>0.80065717415115012</v>
+      </c>
+      <c r="K63">
+        <v>0.94919070220275026</v>
+      </c>
+      <c r="L63">
+        <v>155</v>
+      </c>
+      <c r="M63">
+        <v>11</v>
+      </c>
+      <c r="N63">
+        <v>7</v>
+      </c>
+      <c r="O63">
+        <v>191</v>
+      </c>
+      <c r="P63">
+        <v>93.23</v>
       </c>
     </row>
   </sheetData>

--- a/model_results_final.xlsx
+++ b/model_results_final.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Master\kschool_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E7F09-2B71-4683-AC28-BE2CB54D786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2579418-BE95-42D8-9E97-76F5942BA04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aprendizaje Supervisado" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
-    <sheet name="Pruebas 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Pruebas 1 - Final" sheetId="3" r:id="rId3"/>
     <sheet name="Pruebas 2 - Con discretizacion" sheetId="4" r:id="rId4"/>
     <sheet name="Prueba 2 - Discret + AUC" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
+    <sheet name="Validacion Final" sheetId="7" r:id="rId6"/>
+    <sheet name="Test Final" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -251,6 +252,12 @@
   <si>
     <t>Lasso</t>
   </si>
+  <si>
+    <t>Voting Classifier (KNN + Gradient Boosting + AdaBoost) - 2</t>
+  </si>
+  <si>
+    <t>Voting Classifier (KNN + Gradient Boosting + AdaBoost) - 1</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +277,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +290,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -307,16 +326,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7476,11 +7513,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8603A1-B6C2-4A74-BF24-603D7DAFFFE1}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P102"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="28.234375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
@@ -12123,7 +12163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FE2817-05AF-4E33-A75C-2A59F8CF6443}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
@@ -15289,15 +15329,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F8AC20-6EC1-42CE-AD3D-81B670E7966E}">
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD106"/>
+    <sheetView topLeftCell="A85" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A118" activeCellId="3" sqref="A109:P109 A112:P112 A115:P115 A118:P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.1171875" customWidth="1"/>
+    <col min="1" max="1" width="51.52734375" customWidth="1"/>
+    <col min="8" max="8" width="17.5859375" customWidth="1"/>
+    <col min="9" max="9" width="15.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.5">
@@ -15900,53 +15942,53 @@
         <v>90.93</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.94505494505494503</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.94503536281832956</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.94505494505494503</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.94501617419242812</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.79168704039226134</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>5.4945054945054937E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0.77696078431372539</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>0.98587622549019605</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>149</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>11</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>9</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>195</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>93.04</v>
       </c>
     </row>
@@ -16200,53 +16242,53 @@
         <v>92.69</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>0.9505494505494505</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.95053797130729667</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.9505494505494505</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.95051455677318542</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.81142832668066911</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>4.9450549450549448E-2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>0.79926470588235288</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>0.95428921568627456</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>150</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>10</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>8</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>196</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>93.32</v>
       </c>
     </row>
@@ -16500,53 +16542,53 @@
         <v>93.67</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0.96703296703296704</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>0.967045796774198</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>0.96703296703296704</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>0.96700970451545687</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>0.87210553177571393</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>3.2967032967032968E-2</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>0.86617647058823521</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>0.99053308823529418</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>153</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>7</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <v>5</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <v>199</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>95.76</v>
       </c>
     </row>
@@ -16800,53 +16842,53 @@
         <v>93.91</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.95879120879120883</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>0.95877747042036043</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>0.95879120879120883</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>0.95877699570474206</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>0.8414971103461022</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>4.1208791208791208E-2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>0.83272058823529405</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>0.98567708333333337</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>152</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <v>8</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="3">
         <v>7</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="3">
         <v>197</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <v>94.73</v>
       </c>
     </row>
@@ -16861,43 +16903,43 @@
         <v>15</v>
       </c>
       <c r="D32">
-        <v>0.91000918273645548</v>
+        <v>0.9366391184573003</v>
       </c>
       <c r="E32">
-        <v>0.91014814191983162</v>
+        <v>0.93664023536538332</v>
       </c>
       <c r="F32">
-        <v>0.91000918273645548</v>
+        <v>0.9366391184573003</v>
       </c>
       <c r="G32">
-        <v>0.9100509060018217</v>
+        <v>0.93660063354434575</v>
       </c>
       <c r="H32">
-        <v>0.67211712067764351</v>
+        <v>0.76238219751924297</v>
       </c>
       <c r="I32">
-        <v>8.9990817263544534E-2</v>
+        <v>6.3360881542699726E-2</v>
       </c>
       <c r="J32">
-        <v>0.63715797203938429</v>
+        <v>0.74461294795801836</v>
       </c>
       <c r="K32">
-        <v>0.97413031061306643</v>
+        <v>0.98356864157920498</v>
       </c>
       <c r="L32">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N32">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O32">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="P32">
-        <v>88.91</v>
+        <v>92.03</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.5">
@@ -16911,43 +16953,43 @@
         <v>16</v>
       </c>
       <c r="D33">
-        <v>0.86263736263736268</v>
+        <v>0.9148351648351648</v>
       </c>
       <c r="E33">
-        <v>0.86251346692523156</v>
+        <v>0.9170405531352277</v>
       </c>
       <c r="F33">
-        <v>0.86263736263736268</v>
+        <v>0.9148351648351648</v>
       </c>
       <c r="G33">
-        <v>0.8625491022149836</v>
+        <v>0.91509950465771916</v>
       </c>
       <c r="H33">
-        <v>0.52466480662196946</v>
+        <v>0.68748348924820557</v>
       </c>
       <c r="I33">
-        <v>0.1373626373626374</v>
+        <v>8.5164835164835168E-2</v>
       </c>
       <c r="J33">
-        <v>0.44383327221611052</v>
+        <v>0.65331203146122641</v>
       </c>
       <c r="K33">
-        <v>0.94519313042415354</v>
+        <v>0.96374585227970988</v>
       </c>
       <c r="L33">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N33">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O33">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P33">
-        <v>82.94</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.5">
@@ -16964,40 +17006,40 @@
         <v>0.89560439560439564</v>
       </c>
       <c r="E34">
-        <v>0.89543733525041935</v>
+        <v>0.89556032066059099</v>
       </c>
       <c r="F34">
         <v>0.89560439560439564</v>
       </c>
       <c r="G34">
-        <v>0.8954100145137881</v>
+        <v>0.89533323819038113</v>
       </c>
       <c r="H34">
-        <v>0.62475873346720556</v>
+        <v>0.62482134360238895</v>
       </c>
       <c r="I34">
         <v>0.1043956043956044</v>
       </c>
       <c r="J34">
-        <v>0.5722943722943723</v>
+        <v>0.57438690421243721</v>
       </c>
       <c r="K34">
-        <v>0.96615646258503407</v>
+        <v>0.97147604541678212</v>
       </c>
       <c r="L34">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O34">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P34">
-        <v>86.83</v>
+        <v>86.86</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.5">
@@ -17011,25 +17053,25 @@
         <v>15</v>
       </c>
       <c r="D35">
-        <v>0.96326905417814512</v>
+        <v>0.95224977043158865</v>
       </c>
       <c r="E35">
-        <v>0.96328976697632585</v>
+        <v>0.95268115219122296</v>
       </c>
       <c r="F35">
-        <v>0.96326905417814512</v>
+        <v>0.95224977043158865</v>
       </c>
       <c r="G35">
-        <v>0.9632761301527466</v>
+        <v>0.95230719807134101</v>
       </c>
       <c r="H35">
-        <v>0.85832902990280069</v>
+        <v>0.81794205102693585</v>
       </c>
       <c r="I35">
-        <v>3.6730945821854911E-2</v>
+        <v>4.7750229568411393E-2</v>
       </c>
       <c r="J35">
-        <v>0.85141929366178448</v>
+        <v>0.80684508176031988</v>
       </c>
       <c r="K35">
         <v>0.98958297802670081</v>
@@ -17041,13 +17083,13 @@
         <v>19</v>
       </c>
       <c r="N35">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="O35">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="P35">
-        <v>95.38</v>
+        <v>94.18</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.5">
@@ -17061,93 +17103,93 @@
         <v>16</v>
       </c>
       <c r="D36">
-        <v>0.9505494505494505</v>
+        <v>0.93131868131868134</v>
       </c>
       <c r="E36">
-        <v>0.95065533572783023</v>
+        <v>0.93328413607668925</v>
       </c>
       <c r="F36">
-        <v>0.9505494505494505</v>
+        <v>0.93131868131868134</v>
       </c>
       <c r="G36">
-        <v>0.95057352286267949</v>
+        <v>0.93145035343084859</v>
       </c>
       <c r="H36">
-        <v>0.81145668157931106</v>
+        <v>0.74344094026911878</v>
       </c>
       <c r="I36">
-        <v>4.9450549450549448E-2</v>
+        <v>6.8681318681318687E-2</v>
       </c>
       <c r="J36">
-        <v>0.80045682960255826</v>
+        <v>0.72285670778133093</v>
       </c>
       <c r="K36">
         <v>0.98504644434292676</v>
       </c>
       <c r="L36">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O36">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P36">
-        <v>93.84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A37" t="s">
+        <v>91.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D37">
-        <v>0.95879120879120883</v>
-      </c>
-      <c r="E37">
-        <v>0.95877747042036043</v>
-      </c>
-      <c r="F37">
-        <v>0.95879120879120883</v>
-      </c>
-      <c r="G37">
-        <v>0.95877699570474206</v>
-      </c>
-      <c r="H37">
-        <v>0.8414971103461022</v>
-      </c>
-      <c r="I37">
-        <v>4.1208791208791208E-2</v>
-      </c>
-      <c r="J37">
-        <v>0.83272058823529405</v>
-      </c>
-      <c r="K37">
+      <c r="D37" s="3">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.94921646400936344</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.94792745248672294</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.80155649950595398</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K37" s="3">
         <v>0.98612132352941173</v>
       </c>
-      <c r="L37">
-        <v>152</v>
-      </c>
-      <c r="M37">
-        <v>8</v>
-      </c>
-      <c r="N37">
-        <v>7</v>
-      </c>
-      <c r="O37">
-        <v>197</v>
-      </c>
-      <c r="P37">
-        <v>94.73</v>
+      <c r="L37" s="3">
+        <v>155</v>
+      </c>
+      <c r="M37" s="3">
+        <v>5</v>
+      </c>
+      <c r="N37" s="3">
+        <v>14</v>
+      </c>
+      <c r="O37" s="3">
+        <v>190</v>
+      </c>
+      <c r="P37" s="3">
+        <v>93.74</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.5">
@@ -17400,53 +17442,53 @@
         <v>91.48</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A43" t="s">
+    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>0.93681318681318682</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>0.93678394009733168</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>0.93681318681318682</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>0.93679139341393791</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>0.76253330209063608</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>6.3186813186813184E-2</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>0.74350490196078423</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>0.98121936274509802</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>148</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="3">
         <v>12</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="3">
         <v>11</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="3">
         <v>193</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="3">
         <v>92.03</v>
       </c>
     </row>
@@ -17700,53 +17742,53 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A49" t="s">
+    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>0.9505494505494505</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>0.95053797130729667</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>0.9505494505494505</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>0.95051455677318542</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>0.81142832668066911</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>4.9450549450549448E-2</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>0.79926470588235288</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>0.97227328431372551</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>150</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="3">
         <v>10</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="3">
         <v>8</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="3">
         <v>196</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="3">
         <v>93.54</v>
       </c>
     </row>
@@ -18300,53 +18342,53 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A61" t="s">
+    <row r="61" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>0.95604395604395609</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>0.95614961961115807</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>0.95604395604395609</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>0.95597913208826313</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>0.83140576417535506</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>4.3956043956043959E-2</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>0.82156862745098036</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>0.99016544117647065</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>150</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="3">
         <v>10</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="3">
         <v>6</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="3">
         <v>198</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="3">
         <v>94.36</v>
       </c>
     </row>
@@ -18600,53 +18642,53 @@
         <v>92.65</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A67" t="s">
+    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>0.95604395604395609</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>0.95614961961115807</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>0.95604395604395609</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>0.95597913208826313</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>0.83140576417535506</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>4.3956043956043959E-2</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>0.82156862745098036</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="3">
         <v>0.98612132352941173</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="3">
         <v>150</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="3">
         <v>10</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="3">
         <v>6</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="3">
         <v>198</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="3">
         <v>94.31</v>
       </c>
     </row>
@@ -18900,53 +18942,53 @@
         <v>91.48</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A73" t="s">
+    <row r="73" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>0.93681318681318682</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>0.93678394009733168</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>0.93681318681318682</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>0.93679139341393791</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="3">
         <v>0.76253330209063608</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <v>6.3186813186813184E-2</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="3">
         <v>0.74350490196078423</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <v>0.98121936274509802</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="3">
         <v>148</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="3">
         <v>12</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="3">
         <v>11</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="3">
         <v>193</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="3">
         <v>92.03</v>
       </c>
     </row>
@@ -19200,53 +19242,53 @@
         <v>91.9</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A79" t="s">
+    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B79" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>0.94780219780219777</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>0.94778070525884606</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>0.94780219780219777</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <v>0.94778419455933993</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>0.80153076567692461</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>5.21978021978022E-2</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="3">
         <v>0.78811274509803919</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <v>0.97757352941176467</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="3">
         <v>150</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="3">
         <v>10</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="3">
         <v>9</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="3">
         <v>195</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="3">
         <v>93.3</v>
       </c>
     </row>
@@ -20250,53 +20292,53 @@
         <v>95.34</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A100" t="s">
+    <row r="100" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B100" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>0.9642857142857143</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>0.96434175996624072</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>0.9642857142857143</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>0.96424706335134847</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="3">
         <v>0.8618388353496611</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>0.85502450980392153</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>0.98743872549019607</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="3">
         <v>152</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="3">
         <v>8</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="3">
         <v>5</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="3">
         <v>199</v>
       </c>
-      <c r="P100">
+      <c r="P100" s="3">
         <v>95.36</v>
       </c>
     </row>
@@ -20550,54 +20592,2204 @@
         <v>92.77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A106" t="s">
+    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B106" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>0.94505494505494503</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>0.94518322406111177</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>0.94505494505494503</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>0.94509024922389673</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="3">
         <v>0.7917002464687356</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="3">
         <v>5.4945054945054937E-2</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="3">
         <v>0.77696078431372539</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <v>0.9887561274509804</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="3">
         <v>151</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="3">
         <v>9</v>
       </c>
-      <c r="N106">
+      <c r="N106" s="3">
         <v>11</v>
       </c>
-      <c r="O106">
+      <c r="O106" s="3">
         <v>193</v>
       </c>
-      <c r="P106">
+      <c r="P106" s="3">
         <v>93.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>0.96326905417814512</v>
+      </c>
+      <c r="E107">
+        <v>0.96326905417814512</v>
+      </c>
+      <c r="F107">
+        <v>0.96326905417814512</v>
+      </c>
+      <c r="G107">
+        <v>0.96326905417814512</v>
+      </c>
+      <c r="H107">
+        <v>0.85828675268622201</v>
+      </c>
+      <c r="I107">
+        <v>3.6730945821854911E-2</v>
+      </c>
+      <c r="J107">
+        <v>0.84995763266487101</v>
+      </c>
+      <c r="K107">
+        <v>0.99564787577759561</v>
+      </c>
+      <c r="L107">
+        <v>446</v>
+      </c>
+      <c r="M107">
+        <v>20</v>
+      </c>
+      <c r="N107">
+        <v>20</v>
+      </c>
+      <c r="O107">
+        <v>603</v>
+      </c>
+      <c r="P107">
+        <v>95.41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E108">
+        <v>0.92982760114355023</v>
+      </c>
+      <c r="F108">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G108">
+        <v>0.92849584278155706</v>
+      </c>
+      <c r="H108">
+        <v>0.73396413087915446</v>
+      </c>
+      <c r="I108">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J108">
+        <v>0.71425120772946871</v>
+      </c>
+      <c r="K108">
+        <v>0.98055555555555562</v>
+      </c>
+      <c r="L108">
+        <v>162</v>
+      </c>
+      <c r="M108">
+        <v>18</v>
+      </c>
+      <c r="N108">
+        <v>8</v>
+      </c>
+      <c r="O108">
+        <v>176</v>
+      </c>
+      <c r="P108">
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E109">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="F109">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G109">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="H109">
+        <v>0.71518679090117931</v>
+      </c>
+      <c r="I109">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="J109">
+        <v>0.68991115979067796</v>
+      </c>
+      <c r="K109">
+        <v>0.97873311427528298</v>
+      </c>
+      <c r="L109">
+        <v>152</v>
+      </c>
+      <c r="M109">
+        <v>14</v>
+      </c>
+      <c r="N109">
+        <v>14</v>
+      </c>
+      <c r="O109">
+        <v>184</v>
+      </c>
+      <c r="P109">
+        <v>90.43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>0.99540863177226813</v>
+      </c>
+      <c r="E110">
+        <v>0.9954464519388887</v>
+      </c>
+      <c r="F110">
+        <v>0.99540863177226813</v>
+      </c>
+      <c r="G110">
+        <v>0.99540628028139733</v>
+      </c>
+      <c r="H110">
+        <v>0.98169974754804856</v>
+      </c>
+      <c r="I110">
+        <v>4.5913682277318639E-3</v>
+      </c>
+      <c r="J110">
+        <v>0.98142741170772307</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>482</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>602</v>
+      </c>
+      <c r="P110">
+        <v>99.38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A111" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="E111">
+        <v>0.95924519688922349</v>
+      </c>
+      <c r="F111">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="G111">
+        <v>0.95883659464609672</v>
+      </c>
+      <c r="H111">
+        <v>0.84152059013391967</v>
+      </c>
+      <c r="I111">
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="J111">
+        <v>0.83371402466879863</v>
+      </c>
+      <c r="K111">
+        <v>0.99247753921120752</v>
+      </c>
+      <c r="L111">
+        <v>160</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>10</v>
+      </c>
+      <c r="O111">
+        <v>189</v>
+      </c>
+      <c r="P111">
+        <v>95.02</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E112">
+        <v>0.96432396046874513</v>
+      </c>
+      <c r="F112">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G112">
+        <v>0.96429746897036628</v>
+      </c>
+      <c r="H112">
+        <v>0.86184799238885812</v>
+      </c>
+      <c r="I112">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J112">
+        <v>0.85502450980392153</v>
+      </c>
+      <c r="K112">
+        <v>0.98844975490196063</v>
+      </c>
+      <c r="L112">
+        <v>154</v>
+      </c>
+      <c r="M112">
+        <v>6</v>
+      </c>
+      <c r="N112">
+        <v>7</v>
+      </c>
+      <c r="O112">
+        <v>197</v>
+      </c>
+      <c r="P112">
+        <v>95.49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="E113">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="F113">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="G113">
+        <v>0.99816345270890727</v>
+      </c>
+      <c r="H113">
+        <v>0.99265765968398112</v>
+      </c>
+      <c r="I113">
+        <v>1.8365472910927461E-3</v>
+      </c>
+      <c r="J113">
+        <v>0.99249788163324359</v>
+      </c>
+      <c r="K113">
+        <v>0.99995522151571725</v>
+      </c>
+      <c r="L113">
+        <v>465</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>622</v>
+      </c>
+      <c r="P113">
+        <v>99.77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="E114">
+        <v>0.94038301814464609</v>
+      </c>
+      <c r="F114">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="G114">
+        <v>0.93951660042085572</v>
+      </c>
+      <c r="H114">
+        <v>0.77222793567071957</v>
+      </c>
+      <c r="I114">
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="J114">
+        <v>0.75821256038647344</v>
+      </c>
+      <c r="K114">
+        <v>0.98291062801932361</v>
+      </c>
+      <c r="L114">
+        <v>165</v>
+      </c>
+      <c r="M114">
+        <v>15</v>
+      </c>
+      <c r="N114">
+        <v>7</v>
+      </c>
+      <c r="O114">
+        <v>177</v>
+      </c>
+      <c r="P114">
+        <v>92.28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="E115">
+        <v>0.92587319364729015</v>
+      </c>
+      <c r="F115">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="G115">
+        <v>0.92584165748722713</v>
+      </c>
+      <c r="H115">
+        <v>0.7245425976421308</v>
+      </c>
+      <c r="I115">
+        <v>7.4175824175824176E-2</v>
+      </c>
+      <c r="J115">
+        <v>0.70098576122672518</v>
+      </c>
+      <c r="K115">
+        <v>0.98226238286479239</v>
+      </c>
+      <c r="L115">
+        <v>153</v>
+      </c>
+      <c r="M115">
+        <v>13</v>
+      </c>
+      <c r="N115">
+        <v>14</v>
+      </c>
+      <c r="O115">
+        <v>184</v>
+      </c>
+      <c r="P115">
+        <v>90.83</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116">
+        <v>0.99449035812672182</v>
+      </c>
+      <c r="E116">
+        <v>0.99451305943694313</v>
+      </c>
+      <c r="F116">
+        <v>0.99449035812672182</v>
+      </c>
+      <c r="G116">
+        <v>0.99448811996401643</v>
+      </c>
+      <c r="H116">
+        <v>0.97806004972763783</v>
+      </c>
+      <c r="I116">
+        <v>5.5096418732782371E-3</v>
+      </c>
+      <c r="J116">
+        <v>0.97771289404926764</v>
+      </c>
+      <c r="K116">
+        <v>0.9999624796196116</v>
+      </c>
+      <c r="L116">
+        <v>482</v>
+      </c>
+      <c r="M116">
+        <v>5</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>601</v>
+      </c>
+      <c r="P116">
+        <v>99.27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="E117">
+        <v>0.95376068746293119</v>
+      </c>
+      <c r="F117">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="G117">
+        <v>0.95334814059890971</v>
+      </c>
+      <c r="H117">
+        <v>0.82141928580706636</v>
+      </c>
+      <c r="I117">
+        <v>4.6703296703296697E-2</v>
+      </c>
+      <c r="J117">
+        <v>0.81154256129130498</v>
+      </c>
+      <c r="K117">
+        <v>0.99381757271204518</v>
+      </c>
+      <c r="L117">
+        <v>159</v>
+      </c>
+      <c r="M117">
+        <v>6</v>
+      </c>
+      <c r="N117">
+        <v>11</v>
+      </c>
+      <c r="O117">
+        <v>188</v>
+      </c>
+      <c r="P117">
+        <v>94.37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E118">
+        <v>0.96166173570019731</v>
+      </c>
+      <c r="F118">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G118">
+        <v>0.96148174057723024</v>
+      </c>
+      <c r="H118">
+        <v>0.85163222781236347</v>
+      </c>
+      <c r="I118">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="J118">
+        <v>0.84387254901960773</v>
+      </c>
+      <c r="K118">
+        <v>0.987469362745098</v>
+      </c>
+      <c r="L118">
+        <v>151</v>
+      </c>
+      <c r="M118">
+        <v>9</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>199</v>
+      </c>
+      <c r="P118">
+        <v>94.99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A121" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P121" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122">
+        <v>0.91758241758241754</v>
+      </c>
+      <c r="E122">
+        <v>0.91749102436788632</v>
+      </c>
+      <c r="F122">
+        <v>0.91758241758241754</v>
+      </c>
+      <c r="G122">
+        <v>0.91750838140578872</v>
+      </c>
+      <c r="H122">
+        <v>0.69651103977470574</v>
+      </c>
+      <c r="I122">
+        <v>8.2417582417582416E-2</v>
+      </c>
+      <c r="J122">
+        <v>0.66233766233766234</v>
+      </c>
+      <c r="K122">
+        <v>0.96717687074829928</v>
+      </c>
+      <c r="L122">
+        <v>138</v>
+      </c>
+      <c r="M122">
+        <v>16</v>
+      </c>
+      <c r="N122">
+        <v>14</v>
+      </c>
+      <c r="O122">
+        <v>196</v>
+      </c>
+      <c r="P122">
+        <v>89.49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E123">
+        <v>0.94503536281832956</v>
+      </c>
+      <c r="F123">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="G123">
+        <v>0.94501617419242812</v>
+      </c>
+      <c r="H123">
+        <v>0.79168704039226134</v>
+      </c>
+      <c r="I123">
+        <v>5.4945054945054937E-2</v>
+      </c>
+      <c r="J123">
+        <v>0.77696078431372539</v>
+      </c>
+      <c r="K123">
+        <v>0.98587622549019605</v>
+      </c>
+      <c r="L123">
+        <v>149</v>
+      </c>
+      <c r="M123">
+        <v>11</v>
+      </c>
+      <c r="N123">
+        <v>9</v>
+      </c>
+      <c r="O123">
+        <v>195</v>
+      </c>
+      <c r="P123">
+        <v>93.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="E124">
+        <v>0.89324286901135419</v>
+      </c>
+      <c r="F124">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="G124">
+        <v>0.89298850308820465</v>
+      </c>
+      <c r="H124">
+        <v>0.61616262367069685</v>
+      </c>
+      <c r="I124">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="J124">
+        <v>0.561038961038961</v>
+      </c>
+      <c r="K124">
+        <v>0.93990414347557205</v>
+      </c>
+      <c r="L124">
+        <v>136</v>
+      </c>
+      <c r="M124">
+        <v>18</v>
+      </c>
+      <c r="N124">
+        <v>21</v>
+      </c>
+      <c r="O124">
+        <v>189</v>
+      </c>
+      <c r="P124">
+        <v>86.43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E125">
+        <v>0.95053797130729667</v>
+      </c>
+      <c r="F125">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G125">
+        <v>0.95051455677318542</v>
+      </c>
+      <c r="H125">
+        <v>0.81142832668066911</v>
+      </c>
+      <c r="I125">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J125">
+        <v>0.79926470588235288</v>
+      </c>
+      <c r="K125">
+        <v>0.95428921568627456</v>
+      </c>
+      <c r="L125">
+        <v>150</v>
+      </c>
+      <c r="M125">
+        <v>10</v>
+      </c>
+      <c r="N125">
+        <v>8</v>
+      </c>
+      <c r="O125">
+        <v>196</v>
+      </c>
+      <c r="P125">
+        <v>93.32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="E126">
+        <v>0.93400523260255131</v>
+      </c>
+      <c r="F126">
+        <v>0.93406593406593408</v>
+      </c>
+      <c r="G126">
+        <v>0.9340067051246308</v>
+      </c>
+      <c r="H126">
+        <v>0.7528473138285029</v>
+      </c>
+      <c r="I126">
+        <v>6.5934065934065936E-2</v>
+      </c>
+      <c r="J126">
+        <v>0.72987012987012978</v>
+      </c>
+      <c r="K126">
+        <v>0.96943413729128025</v>
+      </c>
+      <c r="L126">
+        <v>141</v>
+      </c>
+      <c r="M126">
+        <v>13</v>
+      </c>
+      <c r="N126">
+        <v>11</v>
+      </c>
+      <c r="O126">
+        <v>199</v>
+      </c>
+      <c r="P126">
+        <v>91.49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E127">
+        <v>0.967045796774198</v>
+      </c>
+      <c r="F127">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G127">
+        <v>0.96700970451545687</v>
+      </c>
+      <c r="H127">
+        <v>0.87210553177571393</v>
+      </c>
+      <c r="I127">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J127">
+        <v>0.86617647058823521</v>
+      </c>
+      <c r="K127">
+        <v>0.99053308823529418</v>
+      </c>
+      <c r="L127">
+        <v>153</v>
+      </c>
+      <c r="M127">
+        <v>7</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127">
+        <v>199</v>
+      </c>
+      <c r="P127">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128">
+        <v>0.91758241758241754</v>
+      </c>
+      <c r="E128">
+        <v>0.91807129824826772</v>
+      </c>
+      <c r="F128">
+        <v>0.91758241758241754</v>
+      </c>
+      <c r="G128">
+        <v>0.91771449704142005</v>
+      </c>
+      <c r="H128">
+        <v>0.69657350796143547</v>
+      </c>
+      <c r="I128">
+        <v>8.2417582417582416E-2</v>
+      </c>
+      <c r="J128">
+        <v>0.66233766233766234</v>
+      </c>
+      <c r="K128">
+        <v>0.96665120593692011</v>
+      </c>
+      <c r="L128">
+        <v>141</v>
+      </c>
+      <c r="M128">
+        <v>13</v>
+      </c>
+      <c r="N128">
+        <v>17</v>
+      </c>
+      <c r="O128">
+        <v>193</v>
+      </c>
+      <c r="P128">
+        <v>89.69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="E129">
+        <v>0.95877747042036043</v>
+      </c>
+      <c r="F129">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="G129">
+        <v>0.95877699570474206</v>
+      </c>
+      <c r="H129">
+        <v>0.8414971103461022</v>
+      </c>
+      <c r="I129">
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="J129">
+        <v>0.83272058823529405</v>
+      </c>
+      <c r="K129">
+        <v>0.98567708333333337</v>
+      </c>
+      <c r="L129">
+        <v>152</v>
+      </c>
+      <c r="M129">
+        <v>8</v>
+      </c>
+      <c r="N129">
+        <v>7</v>
+      </c>
+      <c r="O129">
+        <v>197</v>
+      </c>
+      <c r="P129">
+        <v>94.73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A130" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130">
+        <v>0.89560439560439564</v>
+      </c>
+      <c r="E130">
+        <v>0.89543733525041935</v>
+      </c>
+      <c r="F130">
+        <v>0.89560439560439564</v>
+      </c>
+      <c r="G130">
+        <v>0.8954100145137881</v>
+      </c>
+      <c r="H130">
+        <v>0.62475873346720556</v>
+      </c>
+      <c r="I130">
+        <v>0.1043956043956044</v>
+      </c>
+      <c r="J130">
+        <v>0.5722943722943723</v>
+      </c>
+      <c r="K130">
+        <v>0.96615646258503407</v>
+      </c>
+      <c r="L130">
+        <v>133</v>
+      </c>
+      <c r="M130">
+        <v>21</v>
+      </c>
+      <c r="N130">
+        <v>17</v>
+      </c>
+      <c r="O130">
+        <v>193</v>
+      </c>
+      <c r="P130">
+        <v>86.83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A131" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="E131">
+        <v>0.95877747042036043</v>
+      </c>
+      <c r="F131">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="G131">
+        <v>0.95877699570474206</v>
+      </c>
+      <c r="H131">
+        <v>0.8414971103461022</v>
+      </c>
+      <c r="I131">
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="J131">
+        <v>0.83272058823529405</v>
+      </c>
+      <c r="K131">
+        <v>0.98612132352941173</v>
+      </c>
+      <c r="L131">
+        <v>152</v>
+      </c>
+      <c r="M131">
+        <v>8</v>
+      </c>
+      <c r="N131">
+        <v>7</v>
+      </c>
+      <c r="O131">
+        <v>197</v>
+      </c>
+      <c r="P131">
+        <v>94.73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A132" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="E132">
+        <v>0.90370803527225507</v>
+      </c>
+      <c r="F132">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="G132">
+        <v>0.90371423716383603</v>
+      </c>
+      <c r="H132">
+        <v>0.65121648324577974</v>
+      </c>
+      <c r="I132">
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="J132">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="K132">
+        <v>0.96658936301793452</v>
+      </c>
+      <c r="L132">
+        <v>135</v>
+      </c>
+      <c r="M132">
+        <v>19</v>
+      </c>
+      <c r="N132">
+        <v>16</v>
+      </c>
+      <c r="O132">
+        <v>194</v>
+      </c>
+      <c r="P132">
+        <v>87.83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A133" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="E133">
+        <v>0.93678394009733168</v>
+      </c>
+      <c r="F133">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="G133">
+        <v>0.93679139341393791</v>
+      </c>
+      <c r="H133">
+        <v>0.76253330209063608</v>
+      </c>
+      <c r="I133">
+        <v>6.3186813186813184E-2</v>
+      </c>
+      <c r="J133">
+        <v>0.74350490196078423</v>
+      </c>
+      <c r="K133">
+        <v>0.98121936274509802</v>
+      </c>
+      <c r="L133">
+        <v>148</v>
+      </c>
+      <c r="M133">
+        <v>12</v>
+      </c>
+      <c r="N133">
+        <v>11</v>
+      </c>
+      <c r="O133">
+        <v>193</v>
+      </c>
+      <c r="P133">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E134">
+        <v>0.9232618343195268</v>
+      </c>
+      <c r="F134">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G134">
+        <v>0.92314103553492344</v>
+      </c>
+      <c r="H134">
+        <v>0.71508804387326963</v>
+      </c>
+      <c r="I134">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="J134">
+        <v>0.68484848484848482</v>
+      </c>
+      <c r="K134">
+        <v>0.96955782312925165</v>
+      </c>
+      <c r="L134">
+        <v>141</v>
+      </c>
+      <c r="M134">
+        <v>13</v>
+      </c>
+      <c r="N134">
+        <v>15</v>
+      </c>
+      <c r="O134">
+        <v>195</v>
+      </c>
+      <c r="P134">
+        <v>90.31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A135" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E135">
+        <v>0.95053797130729667</v>
+      </c>
+      <c r="F135">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G135">
+        <v>0.95051455677318542</v>
+      </c>
+      <c r="H135">
+        <v>0.81142832668066911</v>
+      </c>
+      <c r="I135">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J135">
+        <v>0.79926470588235288</v>
+      </c>
+      <c r="K135">
+        <v>0.97227328431372551</v>
+      </c>
+      <c r="L135">
+        <v>150</v>
+      </c>
+      <c r="M135">
+        <v>10</v>
+      </c>
+      <c r="N135">
+        <v>8</v>
+      </c>
+      <c r="O135">
+        <v>196</v>
+      </c>
+      <c r="P135">
+        <v>93.54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="E136">
+        <v>0.90195432707995526</v>
+      </c>
+      <c r="F136">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="G136">
+        <v>0.90128023791390122</v>
+      </c>
+      <c r="H136">
+        <v>0.64251086662126899</v>
+      </c>
+      <c r="I136">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="J136">
+        <v>0.59797514956281628</v>
+      </c>
+      <c r="K136">
+        <v>0.96165055990182546</v>
+      </c>
+      <c r="L136">
+        <v>144</v>
+      </c>
+      <c r="M136">
+        <v>15</v>
+      </c>
+      <c r="N136">
+        <v>21</v>
+      </c>
+      <c r="O136">
+        <v>184</v>
+      </c>
+      <c r="P136">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A137" t="s">
+        <v>29</v>
+      </c>
+      <c r="B137" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E137">
+        <v>0.95614961961115807</v>
+      </c>
+      <c r="F137">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G137">
+        <v>0.95597913208826313</v>
+      </c>
+      <c r="H137">
+        <v>0.83140576417535506</v>
+      </c>
+      <c r="I137">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J137">
+        <v>0.82156862745098036</v>
+      </c>
+      <c r="K137">
+        <v>0.99016544117647065</v>
+      </c>
+      <c r="L137">
+        <v>150</v>
+      </c>
+      <c r="M137">
+        <v>10</v>
+      </c>
+      <c r="N137">
+        <v>6</v>
+      </c>
+      <c r="O137">
+        <v>198</v>
+      </c>
+      <c r="P137">
+        <v>94.36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A138" t="s">
+        <v>33</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138">
+        <v>0.88736263736263732</v>
+      </c>
+      <c r="E138">
+        <v>0.88902360394707336</v>
+      </c>
+      <c r="F138">
+        <v>0.88736263736263732</v>
+      </c>
+      <c r="G138">
+        <v>0.88764868250786488</v>
+      </c>
+      <c r="H138">
+        <v>0.59908097426343399</v>
+      </c>
+      <c r="I138">
+        <v>0.1126373626373626</v>
+      </c>
+      <c r="J138">
+        <v>0.54213836477987409</v>
+      </c>
+      <c r="K138">
+        <v>0.95618959963184547</v>
+      </c>
+      <c r="L138">
+        <v>143</v>
+      </c>
+      <c r="M138">
+        <v>16</v>
+      </c>
+      <c r="N138">
+        <v>25</v>
+      </c>
+      <c r="O138">
+        <v>180</v>
+      </c>
+      <c r="P138">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E139">
+        <v>0.95614961961115807</v>
+      </c>
+      <c r="F139">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G139">
+        <v>0.95597913208826313</v>
+      </c>
+      <c r="H139">
+        <v>0.83140576417535506</v>
+      </c>
+      <c r="I139">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J139">
+        <v>0.82156862745098036</v>
+      </c>
+      <c r="K139">
+        <v>0.98612132352941173</v>
+      </c>
+      <c r="L139">
+        <v>150</v>
+      </c>
+      <c r="M139">
+        <v>10</v>
+      </c>
+      <c r="N139">
+        <v>6</v>
+      </c>
+      <c r="O139">
+        <v>198</v>
+      </c>
+      <c r="P139">
+        <v>94.31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="E140">
+        <v>0.88447766155745788</v>
+      </c>
+      <c r="F140">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="G140">
+        <v>0.88443786436032357</v>
+      </c>
+      <c r="H140">
+        <v>0.59048635312371012</v>
+      </c>
+      <c r="I140">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="J140">
+        <v>0.53097100782328566</v>
+      </c>
+      <c r="K140">
+        <v>0.96183463721429674</v>
+      </c>
+      <c r="L140">
+        <v>136</v>
+      </c>
+      <c r="M140">
+        <v>23</v>
+      </c>
+      <c r="N140">
+        <v>19</v>
+      </c>
+      <c r="O140">
+        <v>186</v>
+      </c>
+      <c r="P140">
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="E141">
+        <v>0.93678394009733168</v>
+      </c>
+      <c r="F141">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="G141">
+        <v>0.93679139341393791</v>
+      </c>
+      <c r="H141">
+        <v>0.76253330209063608</v>
+      </c>
+      <c r="I141">
+        <v>6.3186813186813184E-2</v>
+      </c>
+      <c r="J141">
+        <v>0.74350490196078423</v>
+      </c>
+      <c r="K141">
+        <v>0.98121936274509802</v>
+      </c>
+      <c r="L141">
+        <v>148</v>
+      </c>
+      <c r="M141">
+        <v>12</v>
+      </c>
+      <c r="N141">
+        <v>11</v>
+      </c>
+      <c r="O141">
+        <v>193</v>
+      </c>
+      <c r="P141">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="E142">
+        <v>0.90195432707995526</v>
+      </c>
+      <c r="F142">
+        <v>0.90109890109890112</v>
+      </c>
+      <c r="G142">
+        <v>0.90128023791390122</v>
+      </c>
+      <c r="H142">
+        <v>0.64251086662126899</v>
+      </c>
+      <c r="I142">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="J142">
+        <v>0.59797514956281628</v>
+      </c>
+      <c r="K142">
+        <v>0.97145267679091885</v>
+      </c>
+      <c r="L142">
+        <v>144</v>
+      </c>
+      <c r="M142">
+        <v>15</v>
+      </c>
+      <c r="N142">
+        <v>21</v>
+      </c>
+      <c r="O142">
+        <v>184</v>
+      </c>
+      <c r="P142">
+        <v>87.92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E143">
+        <v>0.94778070525884606</v>
+      </c>
+      <c r="F143">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G143">
+        <v>0.94778419455933993</v>
+      </c>
+      <c r="H143">
+        <v>0.80153076567692461</v>
+      </c>
+      <c r="I143">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J143">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K143">
+        <v>0.97757352941176467</v>
+      </c>
+      <c r="L143">
+        <v>150</v>
+      </c>
+      <c r="M143">
+        <v>10</v>
+      </c>
+      <c r="N143">
+        <v>9</v>
+      </c>
+      <c r="O143">
+        <v>195</v>
+      </c>
+      <c r="P143">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="E144">
+        <v>0.91544994639506838</v>
+      </c>
+      <c r="F144">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="G144">
+        <v>0.914968626526934</v>
+      </c>
+      <c r="H144">
+        <v>0.68746509360817043</v>
+      </c>
+      <c r="I144">
+        <v>8.5164835164835168E-2</v>
+      </c>
+      <c r="J144">
+        <v>0.65381193434575846</v>
+      </c>
+      <c r="K144">
+        <v>0.97633072557140665</v>
+      </c>
+      <c r="L144">
+        <v>146</v>
+      </c>
+      <c r="M144">
+        <v>13</v>
+      </c>
+      <c r="N144">
+        <v>18</v>
+      </c>
+      <c r="O144">
+        <v>187</v>
+      </c>
+      <c r="P144">
+        <v>89.55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E145">
+        <v>0.96434175996624072</v>
+      </c>
+      <c r="F145">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G145">
+        <v>0.96424706335134847</v>
+      </c>
+      <c r="H145">
+        <v>0.8618388353496611</v>
+      </c>
+      <c r="I145">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J145">
+        <v>0.85502450980392153</v>
+      </c>
+      <c r="K145">
+        <v>0.98743872549019607</v>
+      </c>
+      <c r="L145">
+        <v>152</v>
+      </c>
+      <c r="M145">
+        <v>8</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145">
+        <v>199</v>
+      </c>
+      <c r="P145">
+        <v>95.36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A146" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="E146">
+        <v>0.91587077581053489</v>
+      </c>
+      <c r="F146">
+        <v>0.9148351648351648</v>
+      </c>
+      <c r="G146">
+        <v>0.91501267962806432</v>
+      </c>
+      <c r="H146">
+        <v>0.68747362488988351</v>
+      </c>
+      <c r="I146">
+        <v>8.5164835164835168E-2</v>
+      </c>
+      <c r="J146">
+        <v>0.65381193434575846</v>
+      </c>
+      <c r="K146">
+        <v>0.97085442552538737</v>
+      </c>
+      <c r="L146">
+        <v>147</v>
+      </c>
+      <c r="M146">
+        <v>12</v>
+      </c>
+      <c r="N146">
+        <v>19</v>
+      </c>
+      <c r="O146">
+        <v>186</v>
+      </c>
+      <c r="P146">
+        <v>89.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A147" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E147">
+        <v>0.94518322406111177</v>
+      </c>
+      <c r="F147">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="G147">
+        <v>0.94509024922389673</v>
+      </c>
+      <c r="H147">
+        <v>0.7917002464687356</v>
+      </c>
+      <c r="I147">
+        <v>5.4945054945054937E-2</v>
+      </c>
+      <c r="J147">
+        <v>0.77696078431372539</v>
+      </c>
+      <c r="K147">
+        <v>0.9887561274509804</v>
+      </c>
+      <c r="L147">
+        <v>151</v>
+      </c>
+      <c r="M147">
+        <v>9</v>
+      </c>
+      <c r="N147">
+        <v>11</v>
+      </c>
+      <c r="O147">
+        <v>193</v>
+      </c>
+      <c r="P147">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A148" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E148">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="F148">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G148">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="H148">
+        <v>0.71518679090117931</v>
+      </c>
+      <c r="I148">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="J148">
+        <v>0.68991115979067796</v>
+      </c>
+      <c r="K148">
+        <v>0.97873311427528298</v>
+      </c>
+      <c r="L148">
+        <v>152</v>
+      </c>
+      <c r="M148">
+        <v>14</v>
+      </c>
+      <c r="N148">
+        <v>14</v>
+      </c>
+      <c r="O148">
+        <v>184</v>
+      </c>
+      <c r="P148">
+        <v>90.43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A149" t="s">
+        <v>40</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E149">
+        <v>0.96432396046874513</v>
+      </c>
+      <c r="F149">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G149">
+        <v>0.96429746897036628</v>
+      </c>
+      <c r="H149">
+        <v>0.86184799238885812</v>
+      </c>
+      <c r="I149">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J149">
+        <v>0.85502450980392153</v>
+      </c>
+      <c r="K149">
+        <v>0.98844975490196063</v>
+      </c>
+      <c r="L149">
+        <v>154</v>
+      </c>
+      <c r="M149">
+        <v>6</v>
+      </c>
+      <c r="N149">
+        <v>7</v>
+      </c>
+      <c r="O149">
+        <v>197</v>
+      </c>
+      <c r="P149">
+        <v>95.49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="E150">
+        <v>0.92587319364729015</v>
+      </c>
+      <c r="F150">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="G150">
+        <v>0.92584165748722713</v>
+      </c>
+      <c r="H150">
+        <v>0.7245425976421308</v>
+      </c>
+      <c r="I150">
+        <v>7.4175824175824176E-2</v>
+      </c>
+      <c r="J150">
+        <v>0.70098576122672518</v>
+      </c>
+      <c r="K150">
+        <v>0.98226238286479239</v>
+      </c>
+      <c r="L150">
+        <v>153</v>
+      </c>
+      <c r="M150">
+        <v>13</v>
+      </c>
+      <c r="N150">
+        <v>14</v>
+      </c>
+      <c r="O150">
+        <v>184</v>
+      </c>
+      <c r="P150">
+        <v>90.83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E151">
+        <v>0.96166173570019731</v>
+      </c>
+      <c r="F151">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G151">
+        <v>0.96148174057723024</v>
+      </c>
+      <c r="H151">
+        <v>0.85163222781236347</v>
+      </c>
+      <c r="I151">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="J151">
+        <v>0.84387254901960773</v>
+      </c>
+      <c r="K151">
+        <v>0.987469362745098</v>
+      </c>
+      <c r="L151">
+        <v>151</v>
+      </c>
+      <c r="M151">
+        <v>9</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151">
+        <v>199</v>
+      </c>
+      <c r="P151">
+        <v>94.99</v>
       </c>
     </row>
   </sheetData>
@@ -20606,14 +22798,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9057D0-DBF9-4FE2-A1E9-32FD22303431}">
-  <dimension ref="A1:P63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322D1406-B69E-4EA1-8D91-082D9BCCB6AA}">
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="47.3515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
@@ -20667,257 +22862,257 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="E2">
+        <v>0.92605544965238851</v>
+      </c>
+      <c r="F2">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="G2">
+        <v>0.92587662081332966</v>
+      </c>
+      <c r="H2">
+        <v>0.72454293086946497</v>
+      </c>
+      <c r="I2">
+        <v>7.4175824175824176E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.70068524440383739</v>
+      </c>
+      <c r="K2">
+        <v>0.98571646109334554</v>
+      </c>
+      <c r="L2">
+        <v>153</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>0.92194674012855826</v>
-      </c>
-      <c r="E2">
-        <v>0.92201629859282974</v>
-      </c>
-      <c r="F2">
-        <v>0.92194674012855826</v>
-      </c>
-      <c r="G2">
-        <v>0.92197443289273717</v>
-      </c>
-      <c r="H2">
-        <v>0.71182554021897138</v>
-      </c>
-      <c r="I2">
-        <v>7.8053259871441696E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.68246372337141081</v>
-      </c>
-      <c r="K2">
-        <v>0.92097869712874347</v>
-      </c>
-      <c r="L2">
-        <v>433</v>
-      </c>
-      <c r="M2">
-        <v>41</v>
-      </c>
-      <c r="N2">
-        <v>44</v>
-      </c>
       <c r="O2">
-        <v>571</v>
+        <v>184</v>
       </c>
       <c r="P2">
-        <v>89.59</v>
+        <v>90.93</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3">
-        <v>0.87087912087912089</v>
+        <v>0.94230769230769229</v>
       </c>
       <c r="E3">
-        <v>0.87149304606854627</v>
+        <v>0.94365838335892782</v>
       </c>
       <c r="F3">
-        <v>0.87087912087912089</v>
+        <v>0.94230769230769229</v>
       </c>
       <c r="G3">
-        <v>0.87102132989110304</v>
+        <v>0.94240612766672338</v>
       </c>
       <c r="H3">
-        <v>0.54896184764188527</v>
+        <v>0.78194639570715652</v>
       </c>
       <c r="I3">
-        <v>0.12912087912087911</v>
+        <v>5.7692307692307702E-2</v>
       </c>
       <c r="J3">
-        <v>0.47897061062890212</v>
+        <v>0.76719963453631801</v>
       </c>
       <c r="K3">
-        <v>0.8710370031978073</v>
+        <v>0.9528856403228263</v>
       </c>
       <c r="L3">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O3">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="P3">
-        <v>83.24</v>
+        <v>92.69</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>0.56473829201101933</v>
+        <v>0.94780219780219777</v>
       </c>
       <c r="E4">
-        <v>0.31892933846352328</v>
+        <v>0.94827617803663899</v>
       </c>
       <c r="F4">
-        <v>0.56473829201101933</v>
+        <v>0.94780219780219777</v>
       </c>
       <c r="G4">
-        <v>0.40764559810654571</v>
+        <v>0.94785968655172248</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.80156016586969314</v>
       </c>
       <c r="I4">
-        <v>0.43526170798898067</v>
+        <v>5.21978021978022E-2</v>
       </c>
       <c r="J4">
-        <v>-0.77073170731707363</v>
+        <v>0.78937109791381155</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0.99068067610781185</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="M4">
-        <v>474</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O4">
-        <v>615</v>
+        <v>187</v>
       </c>
       <c r="P4">
-        <v>37.32</v>
+        <v>93.67</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5">
-        <v>0.54670329670329665</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="E5">
-        <v>0.29888449462625277</v>
+        <v>0.95065533572783023</v>
       </c>
       <c r="F5">
-        <v>0.54670329670329665</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="G5">
-        <v>0.38647941756289889</v>
+        <v>0.95057352286267949</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.81145668157931106</v>
       </c>
       <c r="I5">
-        <v>0.4532967032967033</v>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="J5">
-        <v>-0.82914572864321578</v>
+        <v>0.80045682960255826</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>0.99071113141464906</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="M5">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P5">
-        <v>35.97</v>
+        <v>93.91</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>0.95041322314049592</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="E6">
-        <v>0.95041322314049592</v>
+        <v>0.95065533572783023</v>
       </c>
       <c r="F6">
-        <v>0.95041322314049592</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="G6">
-        <v>0.95041322314049592</v>
+        <v>0.95057352286267949</v>
       </c>
       <c r="H6">
-        <v>0.8112703334311353</v>
+        <v>0.81145668157931106</v>
       </c>
       <c r="I6">
-        <v>4.9586776859504127E-2</v>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="J6">
-        <v>0.79836790673752789</v>
+        <v>0.80045682960255826</v>
       </c>
       <c r="K6">
-        <v>0.949591976684382</v>
+        <v>0.98504644434292676</v>
       </c>
       <c r="L6">
-        <v>448</v>
+        <v>157</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="N6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>587</v>
+        <v>189</v>
       </c>
       <c r="P6">
-        <v>93.31</v>
+        <v>93.84</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -20926,98 +23121,98 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>0.95604395604395609</v>
+        <v>0.93131868131868134</v>
       </c>
       <c r="E7">
-        <v>0.95620695909458486</v>
+        <v>0.93136732745166473</v>
       </c>
       <c r="F7">
-        <v>0.95604395604395609</v>
+        <v>0.93131868131868134</v>
       </c>
       <c r="G7">
-        <v>0.95600927671933589</v>
+        <v>0.93133592913285013</v>
       </c>
       <c r="H7">
-        <v>0.83144066499928437</v>
+        <v>0.7434306980940566</v>
       </c>
       <c r="I7">
-        <v>4.3956043956043959E-2</v>
+        <v>6.8681318681318687E-2</v>
       </c>
       <c r="J7">
-        <v>0.82353119413386655</v>
+        <v>0.72285670778133093</v>
       </c>
       <c r="K7">
-        <v>0.95521619246735134</v>
+        <v>0.98282320694380987</v>
       </c>
       <c r="L7">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O7">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P7">
-        <v>93.98</v>
+        <v>91.48</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>0.88062442607897151</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="E8">
-        <v>0.88461703445817563</v>
+        <v>0.94120006977149817</v>
       </c>
       <c r="F8">
-        <v>0.88062442607897151</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="G8">
-        <v>0.87921245198766296</v>
+        <v>0.93967039631078442</v>
       </c>
       <c r="H8">
-        <v>0.57871746290941217</v>
+        <v>0.77222950809260849</v>
       </c>
       <c r="I8">
-        <v>0.1193755739210285</v>
+        <v>6.043956043956044E-2</v>
       </c>
       <c r="J8">
-        <v>0.51458940510886342</v>
+        <v>0.75611390284757118</v>
       </c>
       <c r="K8">
-        <v>0.87078347334133377</v>
+        <v>0.9794731231917162</v>
       </c>
       <c r="L8">
-        <v>377</v>
+        <v>159</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="O8">
-        <v>582</v>
+        <v>183</v>
       </c>
       <c r="P8">
-        <v>83.47</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -21026,248 +23221,248 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>0.88461538461538458</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="E9">
-        <v>0.89303230705945646</v>
+        <v>0.94022671265649183</v>
       </c>
       <c r="F9">
-        <v>0.88461538461538458</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="G9">
-        <v>0.88337274282995704</v>
+        <v>0.93963753083651047</v>
       </c>
       <c r="H9">
-        <v>0.59057513030575504</v>
+        <v>0.77222653230811855</v>
       </c>
       <c r="I9">
-        <v>0.1153846153846154</v>
+        <v>6.043956043956044E-2</v>
       </c>
       <c r="J9">
-        <v>0.53676938460139989</v>
+        <v>0.75611390284757118</v>
       </c>
       <c r="K9">
-        <v>0.87952610368754347</v>
+        <v>0.98943200852748592</v>
       </c>
       <c r="L9">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P9">
-        <v>84.07</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>0.92470156106519741</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="E10">
-        <v>0.92470156106519741</v>
+        <v>0.94022671265649183</v>
       </c>
       <c r="F10">
-        <v>0.92470156106519741</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="G10">
-        <v>0.92470156106519741</v>
+        <v>0.93963753083651047</v>
       </c>
       <c r="H10">
-        <v>0.72115953281006973</v>
+        <v>0.77222653230811855</v>
       </c>
       <c r="I10">
-        <v>7.5298438934802578E-2</v>
+        <v>6.043956043956044E-2</v>
       </c>
       <c r="J10">
-        <v>0.69367088607594929</v>
+        <v>0.75611390284757118</v>
       </c>
       <c r="K10">
-        <v>0.92341772151898738</v>
+        <v>0.98504644434292676</v>
       </c>
       <c r="L10">
-        <v>433</v>
+        <v>157</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O10">
-        <v>574</v>
+        <v>185</v>
       </c>
       <c r="P10">
-        <v>89.92</v>
+        <v>92.65</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11">
-        <v>0.84890109890109888</v>
+        <v>0.93131868131868134</v>
       </c>
       <c r="E11">
-        <v>0.84883342267488615</v>
+        <v>0.93136732745166473</v>
       </c>
       <c r="F11">
-        <v>0.84890109890109888</v>
+        <v>0.93131868131868134</v>
       </c>
       <c r="G11">
-        <v>0.84886081230666077</v>
+        <v>0.93133592913285013</v>
       </c>
       <c r="H11">
-        <v>0.4854927326432002</v>
+        <v>0.7434306980940566</v>
       </c>
       <c r="I11">
-        <v>0.15109890109890109</v>
+        <v>6.8681318681318687E-2</v>
       </c>
       <c r="J11">
-        <v>0.39028475711892813</v>
+        <v>0.72285670778133093</v>
       </c>
       <c r="K11">
-        <v>0.84731231917161565</v>
+        <v>0.98282320694380987</v>
       </c>
       <c r="L11">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N11">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="O11">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P11">
-        <v>80.28</v>
+        <v>91.48</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>0.88461538461538458</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="E12">
-        <v>0.88484686230818332</v>
+        <v>0.93517803807426425</v>
       </c>
       <c r="F12">
-        <v>0.88461538461538458</v>
+        <v>0.93406593406593408</v>
       </c>
       <c r="G12">
-        <v>0.88448943415589865</v>
+        <v>0.93416997203979435</v>
       </c>
       <c r="H12">
-        <v>0.59059172972025509</v>
+        <v>0.75297474666874009</v>
       </c>
       <c r="I12">
-        <v>0.1153846153846154</v>
+        <v>6.5934065934065936E-2</v>
       </c>
       <c r="J12">
-        <v>0.53733014556789638</v>
+        <v>0.73394243947007776</v>
       </c>
       <c r="K12">
-        <v>0.88351541930212152</v>
+        <v>0.97173747525506304</v>
       </c>
       <c r="L12">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O12">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P12">
-        <v>84.7</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>0.95224977043158865</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="E13">
-        <v>0.95222902490120465</v>
+        <v>0.96184190562888783</v>
       </c>
       <c r="F13">
-        <v>0.95224977043158865</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="G13">
-        <v>0.95222633517847821</v>
+        <v>0.9615735339161583</v>
       </c>
       <c r="H13">
-        <v>0.81790372101095343</v>
+        <v>0.85166138851702666</v>
       </c>
       <c r="I13">
-        <v>4.7750229568411393E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="J13">
-        <v>0.80583576204354535</v>
+        <v>0.84479975635754534</v>
       </c>
       <c r="K13">
-        <v>0.95098234184810559</v>
+        <v>0.99412212578041725</v>
       </c>
       <c r="L13">
-        <v>447</v>
+        <v>160</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O13">
-        <v>590</v>
+        <v>190</v>
       </c>
       <c r="P13">
-        <v>93.51</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -21276,2497 +23471,1166 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>0.95329670329670335</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="E14">
-        <v>0.95337379457277427</v>
+        <v>0.94066057115719681</v>
       </c>
       <c r="F14">
-        <v>0.95329670329670335</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="G14">
-        <v>0.95327014137442501</v>
+        <v>0.93965580770314494</v>
       </c>
       <c r="H14">
-        <v>0.82142048771843379</v>
+        <v>0.77222818553132355</v>
       </c>
       <c r="I14">
-        <v>4.6703296703296697E-2</v>
+        <v>6.043956043956044E-2</v>
       </c>
       <c r="J14">
-        <v>0.81250189376723325</v>
+        <v>0.75611390284757118</v>
       </c>
       <c r="K14">
-        <v>0.95262551889222191</v>
+        <v>0.98946246383432312</v>
       </c>
       <c r="L14">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O14">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P14">
-        <v>93.65</v>
+        <v>92.77</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E15">
+        <v>0.92982760114355023</v>
+      </c>
+      <c r="F15">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G15">
+        <v>0.92849584278155706</v>
+      </c>
+      <c r="H15">
+        <v>0.73396413087915446</v>
+      </c>
+      <c r="I15">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.71425120772946871</v>
+      </c>
+      <c r="K15">
+        <v>0.98055555555555562</v>
+      </c>
+      <c r="L15">
+        <v>162</v>
+      </c>
+      <c r="M15">
         <v>18</v>
       </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>176</v>
+      </c>
+      <c r="P15">
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="E16">
+        <v>0.95924519688922349</v>
+      </c>
+      <c r="F16">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="G16">
+        <v>0.95883659464609672</v>
+      </c>
+      <c r="H16">
+        <v>0.84152059013391967</v>
+      </c>
+      <c r="I16">
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.83371402466879863</v>
+      </c>
+      <c r="K16">
+        <v>0.99247753921120752</v>
+      </c>
+      <c r="L16">
+        <v>160</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>189</v>
+      </c>
+      <c r="P16">
+        <v>95.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="E17">
+        <v>0.94038301814464609</v>
+      </c>
+      <c r="F17">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="G17">
+        <v>0.93951660042085572</v>
+      </c>
+      <c r="H17">
+        <v>0.77222793567071957</v>
+      </c>
+      <c r="I17">
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.75821256038647344</v>
+      </c>
+      <c r="K17">
+        <v>0.98291062801932361</v>
+      </c>
+      <c r="L17">
+        <v>165</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>177</v>
+      </c>
+      <c r="P17">
+        <v>92.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="E18">
+        <v>0.95376068746293119</v>
+      </c>
+      <c r="F18">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="G18">
+        <v>0.95334814059890971</v>
+      </c>
+      <c r="H18">
+        <v>0.82141928580706636</v>
+      </c>
+      <c r="I18">
+        <v>4.6703296703296697E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.81154256129130498</v>
+      </c>
+      <c r="K18">
+        <v>0.99381757271204518</v>
+      </c>
+      <c r="L18">
+        <v>159</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>11</v>
+      </c>
+      <c r="O18">
+        <v>188</v>
+      </c>
+      <c r="P18">
+        <v>94.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9057D0-DBF9-4FE2-A1E9-32FD22303431}">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="50.87890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.94503536281832956</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.94501617419242812</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.79168704039226134</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5.4945054945054937E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.77696078431372539</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.98587622549019605</v>
+      </c>
+      <c r="L2" s="4">
+        <v>149</v>
+      </c>
+      <c r="M2" s="4">
+        <v>11</v>
+      </c>
+      <c r="N2" s="4">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4">
+        <v>195</v>
+      </c>
+      <c r="P2" s="4">
+        <v>93.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.95053797130729667</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.95051455677318542</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.81142832668066911</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.79926470588235288</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.95428921568627456</v>
+      </c>
+      <c r="L3" s="4">
+        <v>150</v>
+      </c>
+      <c r="M3" s="4">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4">
+        <v>8</v>
+      </c>
+      <c r="O3" s="4">
+        <v>196</v>
+      </c>
+      <c r="P3" s="4">
+        <v>93.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.967045796774198</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.96700970451545687</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.87210553177571393</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.86617647058823521</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.99053308823529418</v>
+      </c>
+      <c r="L4" s="4">
+        <v>153</v>
+      </c>
+      <c r="M4" s="4">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>199</v>
+      </c>
+      <c r="P4" s="4">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.95877747042036043</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.95877699570474206</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.8414971103461022</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.83272058823529405</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.98567708333333337</v>
+      </c>
+      <c r="L5" s="4">
+        <v>152</v>
+      </c>
+      <c r="M5" s="4">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4">
+        <v>7</v>
+      </c>
+      <c r="O5" s="4">
+        <v>197</v>
+      </c>
+      <c r="P5" s="4">
+        <v>94.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.95877747042036043</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.95877699570474206</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.8414971103461022</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.83272058823529405</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.98612132352941173</v>
+      </c>
+      <c r="L6" s="4">
+        <v>152</v>
+      </c>
+      <c r="M6" s="4">
+        <v>8</v>
+      </c>
+      <c r="N6" s="4">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4">
+        <v>197</v>
+      </c>
+      <c r="P6" s="4">
+        <v>94.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.93678394009733168</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.93679139341393791</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.76253330209063608</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.3186813186813184E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.74350490196078423</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.98121936274509802</v>
+      </c>
+      <c r="L7" s="4">
+        <v>148</v>
+      </c>
+      <c r="M7" s="4">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4">
+        <v>193</v>
+      </c>
+      <c r="P7" s="4">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.95053797130729667</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.95051455677318542</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.81142832668066911</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.79926470588235288</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.97227328431372551</v>
+      </c>
+      <c r="L8" s="4">
+        <v>150</v>
+      </c>
+      <c r="M8" s="4">
+        <v>10</v>
+      </c>
+      <c r="N8" s="4">
+        <v>8</v>
+      </c>
+      <c r="O8" s="4">
+        <v>196</v>
+      </c>
+      <c r="P8" s="4">
+        <v>93.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.95614961961115807</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.95597913208826313</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.83140576417535506</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.82156862745098036</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.99016544117647065</v>
+      </c>
+      <c r="L9" s="4">
+        <v>150</v>
+      </c>
+      <c r="M9" s="4">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4">
+        <v>6</v>
+      </c>
+      <c r="O9" s="4">
+        <v>198</v>
+      </c>
+      <c r="P9" s="4">
+        <v>94.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.95614961961115807</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.95597913208826313</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.83140576417535506</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.82156862745098036</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.98612132352941173</v>
+      </c>
+      <c r="L10" s="4">
+        <v>150</v>
+      </c>
+      <c r="M10" s="4">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4">
+        <v>6</v>
+      </c>
+      <c r="O10" s="4">
+        <v>198</v>
+      </c>
+      <c r="P10" s="4">
+        <v>94.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.93678394009733168</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.93681318681318682</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.93679139341393791</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.76253330209063608</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6.3186813186813184E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.74350490196078423</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.98121936274509802</v>
+      </c>
+      <c r="L11" s="4">
+        <v>148</v>
+      </c>
+      <c r="M11" s="4">
+        <v>12</v>
+      </c>
+      <c r="N11" s="4">
+        <v>11</v>
+      </c>
+      <c r="O11" s="4">
+        <v>193</v>
+      </c>
+      <c r="P11" s="4">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.94778070525884606</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.94778419455933993</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.80153076567692461</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.97757352941176467</v>
+      </c>
+      <c r="L12" s="4">
+        <v>150</v>
+      </c>
+      <c r="M12" s="4">
+        <v>10</v>
+      </c>
+      <c r="N12" s="4">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4">
+        <v>195</v>
+      </c>
+      <c r="P12" s="4">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.96434175996624072</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.96424706335134847</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.8618388353496611</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.85502450980392153</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.98743872549019607</v>
+      </c>
+      <c r="L13" s="4">
+        <v>152</v>
+      </c>
+      <c r="M13" s="4">
+        <v>8</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4">
+        <v>199</v>
+      </c>
+      <c r="P13" s="4">
+        <v>95.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.94518322406111177</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.94509024922389673</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.7917002464687356</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5.4945054945054937E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.77696078431372539</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.9887561274509804</v>
+      </c>
+      <c r="L14" s="4">
+        <v>151</v>
+      </c>
+      <c r="M14" s="4">
+        <v>9</v>
+      </c>
+      <c r="N14" s="4">
+        <v>11</v>
+      </c>
+      <c r="O14" s="4">
+        <v>193</v>
+      </c>
+      <c r="P14" s="4">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>0.93406593406593408</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="E15">
-        <v>0.93418273902967797</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="F15">
-        <v>0.93406593406593408</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="G15">
-        <v>0.93409599610395988</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="H15">
-        <v>0.75297037626036167</v>
+        <v>0.71518679090117931</v>
       </c>
       <c r="I15">
-        <v>6.5934065934065936E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J15">
-        <v>0.73420956553486683</v>
+        <v>0.68991115979067796</v>
       </c>
       <c r="K15">
-        <v>0.93403918705123523</v>
+        <v>0.97873311427528298</v>
       </c>
       <c r="L15">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O15">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P15">
-        <v>91.26</v>
+        <v>90.43</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>0.95041322314049592</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E16">
-        <v>0.95044799088059273</v>
+        <v>0.96432396046874513</v>
       </c>
       <c r="F16">
-        <v>0.95041322314049592</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="G16">
-        <v>0.9503488479831107</v>
+        <v>0.96429746897036628</v>
       </c>
       <c r="H16">
-        <v>0.81125228067002497</v>
+        <v>0.86184799238885812</v>
       </c>
       <c r="I16">
-        <v>4.9586776859504127E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="J16">
-        <v>0.7982710713183081</v>
+        <v>0.85502450980392153</v>
       </c>
       <c r="K16">
-        <v>0.94835854687660814</v>
+        <v>0.98844975490196063</v>
       </c>
       <c r="L16">
-        <v>442</v>
+        <v>154</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="N16">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="O16">
-        <v>593</v>
+        <v>197</v>
       </c>
       <c r="P16">
-        <v>93.19</v>
+        <v>95.49</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>0.88461538461538458</v>
+        <v>0.92582417582417587</v>
       </c>
       <c r="E17">
-        <v>0.88539153783222502</v>
+        <v>0.92587319364729015</v>
       </c>
       <c r="F17">
-        <v>0.88461538461538458</v>
+        <v>0.92582417582417587</v>
       </c>
       <c r="G17">
-        <v>0.88476255886970179</v>
+        <v>0.92584165748722713</v>
       </c>
       <c r="H17">
-        <v>0.59058899826355604</v>
+        <v>0.7245425976421308</v>
       </c>
       <c r="I17">
-        <v>0.1153846153846154</v>
+        <v>7.4175824175824176E-2</v>
       </c>
       <c r="J17">
-        <v>0.53439926907263602</v>
+        <v>0.70098576122672518</v>
       </c>
       <c r="K17">
-        <v>0.88515303791685696</v>
+        <v>0.98226238286479239</v>
       </c>
       <c r="L17">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N17">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O17">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P17">
-        <v>85.01</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0.89835164835164838</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="E18">
-        <v>0.89951707319694119</v>
+        <v>0.96166173570019731</v>
       </c>
       <c r="F18">
-        <v>0.89835164835164838</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="G18">
-        <v>0.89810535444578965</v>
+        <v>0.96148174057723024</v>
       </c>
       <c r="H18">
-        <v>0.63373094365757598</v>
+        <v>0.85163222781236347</v>
       </c>
       <c r="I18">
-        <v>0.10164835164835161</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="J18">
-        <v>0.59240989014314682</v>
+        <v>0.84387254901960773</v>
       </c>
       <c r="K18">
-        <v>0.8966044245377236</v>
+        <v>0.987469362745098</v>
       </c>
       <c r="L18">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="P18">
-        <v>86.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>0.96418732782369143</v>
-      </c>
-      <c r="E19">
-        <v>0.96418443977369428</v>
-      </c>
-      <c r="F19">
-        <v>0.96418732782369143</v>
-      </c>
-      <c r="G19">
-        <v>0.96416519818422042</v>
-      </c>
-      <c r="H19">
-        <v>0.86171463592514808</v>
-      </c>
-      <c r="I19">
-        <v>3.5812672176308541E-2</v>
-      </c>
-      <c r="J19">
-        <v>0.85437682153265904</v>
-      </c>
-      <c r="K19">
-        <v>0.96299845705468889</v>
-      </c>
-      <c r="L19">
-        <v>453</v>
-      </c>
-      <c r="M19">
-        <v>22</v>
-      </c>
-      <c r="N19">
-        <v>17</v>
-      </c>
-      <c r="O19">
-        <v>597</v>
-      </c>
-      <c r="P19">
-        <v>95.09</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="E20">
-        <v>0.96196717855009306</v>
-      </c>
-      <c r="F20">
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="G20">
-        <v>0.96148940345368927</v>
-      </c>
-      <c r="H20">
-        <v>0.85166268053027394</v>
-      </c>
-      <c r="I20">
-        <v>3.8461538461538457E-2</v>
-      </c>
-      <c r="J20">
-        <v>0.84558979486713326</v>
-      </c>
-      <c r="K20">
-        <v>0.96039753961761043</v>
-      </c>
-      <c r="L20">
-        <v>161</v>
-      </c>
-      <c r="M20">
-        <v>10</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>189</v>
-      </c>
-      <c r="P20">
-        <v>94.65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>0.93406593406593408</v>
-      </c>
-      <c r="E21">
-        <v>0.93406593406593408</v>
-      </c>
-      <c r="F21">
-        <v>0.93406593406593408</v>
-      </c>
-      <c r="G21">
-        <v>0.93406593406593408</v>
-      </c>
-      <c r="H21">
-        <v>0.75296813496530857</v>
-      </c>
-      <c r="I21">
-        <v>6.5934065934065936E-2</v>
-      </c>
-      <c r="J21">
-        <v>0.73420956553486683</v>
-      </c>
-      <c r="K21">
-        <v>0.93355239138371671</v>
-      </c>
-      <c r="L21">
-        <v>154</v>
-      </c>
-      <c r="M21">
-        <v>12</v>
-      </c>
-      <c r="N21">
-        <v>12</v>
-      </c>
-      <c r="O21">
-        <v>186</v>
-      </c>
-      <c r="P21">
-        <v>91.19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>0.98438934802571165</v>
-      </c>
-      <c r="E22">
-        <v>0.98439298227920968</v>
-      </c>
-      <c r="F22">
-        <v>0.98438934802571165</v>
-      </c>
-      <c r="G22">
-        <v>0.98438356027384999</v>
-      </c>
-      <c r="H22">
-        <v>0.93845876122059213</v>
-      </c>
-      <c r="I22">
-        <v>1.5610651974288341E-2</v>
-      </c>
-      <c r="J22">
-        <v>0.93649274467428212</v>
-      </c>
-      <c r="K22">
-        <v>0.98376041988267993</v>
-      </c>
-      <c r="L22">
-        <v>464</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>7</v>
-      </c>
-      <c r="O22">
-        <v>608</v>
-      </c>
-      <c r="P22">
-        <v>97.84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="E23">
-        <v>0.89052604200533192</v>
-      </c>
-      <c r="F23">
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="G23">
-        <v>0.89021009690330943</v>
-      </c>
-      <c r="H23">
-        <v>0.60765950922054413</v>
-      </c>
-      <c r="I23">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="J23">
-        <v>0.55657073245012945</v>
-      </c>
-      <c r="K23">
-        <v>0.89017816354499768</v>
-      </c>
-      <c r="L23">
-        <v>147</v>
-      </c>
-      <c r="M23">
-        <v>18</v>
-      </c>
-      <c r="N23">
-        <v>22</v>
-      </c>
-      <c r="O23">
-        <v>177</v>
-      </c>
-      <c r="P23">
-        <v>85.64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24">
-        <v>0.90659340659340659</v>
-      </c>
-      <c r="E24">
-        <v>0.90659174174309154</v>
-      </c>
-      <c r="F24">
-        <v>0.90659340659340659</v>
-      </c>
-      <c r="G24">
-        <v>0.90656512213561646</v>
-      </c>
-      <c r="H24">
-        <v>0.66033975372311582</v>
-      </c>
-      <c r="I24">
-        <v>9.3406593406593408E-2</v>
-      </c>
-      <c r="J24">
-        <v>0.62545773688829698</v>
-      </c>
-      <c r="K24">
-        <v>0.90609206185878999</v>
-      </c>
-      <c r="L24">
-        <v>155</v>
-      </c>
-      <c r="M24">
-        <v>18</v>
-      </c>
-      <c r="N24">
-        <v>16</v>
-      </c>
-      <c r="O24">
-        <v>175</v>
-      </c>
-      <c r="P24">
-        <v>87.61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>0.99449035812672182</v>
-      </c>
-      <c r="E25">
-        <v>0.99451227721813118</v>
-      </c>
-      <c r="F25">
-        <v>0.99449035812672182</v>
-      </c>
-      <c r="G25">
-        <v>0.99448765405905526</v>
-      </c>
-      <c r="H25">
-        <v>0.97805686483067233</v>
-      </c>
-      <c r="I25">
-        <v>5.5096418732782371E-3</v>
-      </c>
-      <c r="J25">
-        <v>0.97759643408194752</v>
-      </c>
-      <c r="K25">
-        <v>0.99392250985770614</v>
-      </c>
-      <c r="L25">
-        <v>470</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>613</v>
-      </c>
-      <c r="P25">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26">
-        <v>0.97802197802197799</v>
-      </c>
-      <c r="E26">
-        <v>0.97806532717775307</v>
-      </c>
-      <c r="F26">
-        <v>0.97802197802197799</v>
-      </c>
-      <c r="G26">
-        <v>0.97801398116740745</v>
-      </c>
-      <c r="H26">
-        <v>0.91378300162075754</v>
-      </c>
-      <c r="I26">
-        <v>2.197802197802198E-2</v>
-      </c>
-      <c r="J26">
-        <v>0.91176559706693328</v>
-      </c>
-      <c r="K26">
-        <v>0.97760809623367573</v>
-      </c>
-      <c r="L26">
-        <v>166</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>190</v>
-      </c>
-      <c r="P26">
-        <v>96.97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27">
-        <v>0.94505494505494503</v>
-      </c>
-      <c r="E27">
-        <v>0.94505561511659075</v>
-      </c>
-      <c r="F27">
-        <v>0.94505494505494503</v>
-      </c>
-      <c r="G27">
-        <v>0.94502649779031689</v>
-      </c>
-      <c r="H27">
-        <v>0.79171608971794472</v>
-      </c>
-      <c r="I27">
-        <v>5.4945054945054937E-2</v>
-      </c>
-      <c r="J27">
-        <v>0.77850797127905569</v>
-      </c>
-      <c r="K27">
-        <v>0.9441401971522454</v>
-      </c>
-      <c r="L27">
-        <v>155</v>
-      </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-      <c r="N27">
-        <v>9</v>
-      </c>
-      <c r="O27">
-        <v>189</v>
-      </c>
-      <c r="P27">
-        <v>92.57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>0.93112947658402201</v>
-      </c>
-      <c r="E28">
-        <v>0.93121307292430289</v>
-      </c>
-      <c r="F28">
-        <v>0.93112947658402201</v>
-      </c>
-      <c r="G28">
-        <v>0.9309907376843346</v>
-      </c>
-      <c r="H28">
-        <v>0.74315794894370901</v>
-      </c>
-      <c r="I28">
-        <v>6.8870523415977963E-2</v>
-      </c>
-      <c r="J28">
-        <v>0.71982093238653899</v>
-      </c>
-      <c r="K28">
-        <v>0.92814140166718107</v>
-      </c>
-      <c r="L28">
-        <v>429</v>
-      </c>
-      <c r="M28">
-        <v>45</v>
-      </c>
-      <c r="N28">
-        <v>30</v>
-      </c>
-      <c r="O28">
-        <v>585</v>
-      </c>
-      <c r="P28">
-        <v>90.58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29">
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="E29">
-        <v>0.89052604200533192</v>
-      </c>
-      <c r="F29">
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="G29">
-        <v>0.89021009690330943</v>
-      </c>
-      <c r="H29">
-        <v>0.60765950922054413</v>
-      </c>
-      <c r="I29">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="J29">
-        <v>0.55657073245012945</v>
-      </c>
-      <c r="K29">
-        <v>0.89017816354499768</v>
-      </c>
-      <c r="L29">
-        <v>147</v>
-      </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>22</v>
-      </c>
-      <c r="O29">
-        <v>177</v>
-      </c>
-      <c r="P29">
-        <v>85.64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>0.90384615384615385</v>
-      </c>
-      <c r="E30">
-        <v>0.90387764146102534</v>
-      </c>
-      <c r="F30">
-        <v>0.90384615384615385</v>
-      </c>
-      <c r="G30">
-        <v>0.90380028135130186</v>
-      </c>
-      <c r="H30">
-        <v>0.65140936617878675</v>
-      </c>
-      <c r="I30">
-        <v>9.6153846153846159E-2</v>
-      </c>
-      <c r="J30">
-        <v>0.614441787973247</v>
-      </c>
-      <c r="K30">
-        <v>0.90320188844838545</v>
-      </c>
-      <c r="L30">
-        <v>154</v>
-      </c>
-      <c r="M30">
-        <v>19</v>
-      </c>
-      <c r="N30">
-        <v>16</v>
-      </c>
-      <c r="O30">
-        <v>175</v>
-      </c>
-      <c r="P30">
-        <v>87.23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>475</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>614</v>
-      </c>
-      <c r="P31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>0.96703296703296704</v>
-      </c>
-      <c r="E32">
-        <v>0.96721601144227975</v>
-      </c>
-      <c r="F32">
-        <v>0.96703296703296704</v>
-      </c>
-      <c r="G32">
-        <v>0.96700695753950183</v>
-      </c>
-      <c r="H32">
-        <v>0.87212740103393982</v>
-      </c>
-      <c r="I32">
-        <v>3.2967032967032968E-2</v>
-      </c>
-      <c r="J32">
-        <v>0.86764839560039997</v>
-      </c>
-      <c r="K32">
-        <v>0.96624549283398475</v>
-      </c>
-      <c r="L32">
-        <v>163</v>
-      </c>
-      <c r="M32">
-        <v>8</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>189</v>
-      </c>
-      <c r="P32">
-        <v>95.44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>0.94505494505494503</v>
-      </c>
-      <c r="E33">
-        <v>0.94505561511659075</v>
-      </c>
-      <c r="F33">
-        <v>0.94505494505494503</v>
-      </c>
-      <c r="G33">
-        <v>0.94502649779031689</v>
-      </c>
-      <c r="H33">
-        <v>0.79171608971794472</v>
-      </c>
-      <c r="I33">
-        <v>5.4945054945054937E-2</v>
-      </c>
-      <c r="J33">
-        <v>0.77850797127905569</v>
-      </c>
-      <c r="K33">
-        <v>0.9441401971522454</v>
-      </c>
-      <c r="L33">
-        <v>155</v>
-      </c>
-      <c r="M33">
-        <v>11</v>
-      </c>
-      <c r="N33">
-        <v>9</v>
-      </c>
-      <c r="O33">
-        <v>189</v>
-      </c>
-      <c r="P33">
-        <v>92.57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34">
-        <v>0.92102846648301195</v>
-      </c>
-      <c r="E34">
-        <v>0.92119459258957681</v>
-      </c>
-      <c r="F34">
-        <v>0.92102846648301195</v>
-      </c>
-      <c r="G34">
-        <v>0.92108324695853705</v>
-      </c>
-      <c r="H34">
-        <v>0.70873183301407261</v>
-      </c>
-      <c r="I34">
-        <v>7.897153351698806E-2</v>
-      </c>
-      <c r="J34">
-        <v>0.67872800246989806</v>
-      </c>
-      <c r="K34">
-        <v>0.92040753318925594</v>
-      </c>
-      <c r="L34">
-        <v>434</v>
-      </c>
-      <c r="M34">
-        <v>40</v>
-      </c>
-      <c r="N34">
-        <v>46</v>
-      </c>
-      <c r="O34">
-        <v>569</v>
-      </c>
-      <c r="P34">
-        <v>89.51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35">
-        <v>0.85439560439560436</v>
-      </c>
-      <c r="E35">
-        <v>0.85448169634916615</v>
-      </c>
-      <c r="F35">
-        <v>0.85439560439560436</v>
-      </c>
-      <c r="G35">
-        <v>0.85443216976164227</v>
-      </c>
-      <c r="H35">
-        <v>0.50099919724888908</v>
-      </c>
-      <c r="I35">
-        <v>0.14560439560439559</v>
-      </c>
-      <c r="J35">
-        <v>0.41245622049642161</v>
-      </c>
-      <c r="K35">
-        <v>0.85337292523222164</v>
-      </c>
-      <c r="L35">
-        <v>139</v>
-      </c>
-      <c r="M35">
-        <v>26</v>
-      </c>
-      <c r="N35">
-        <v>27</v>
-      </c>
-      <c r="O35">
-        <v>172</v>
-      </c>
-      <c r="P35">
-        <v>81.03</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36">
-        <v>0.89560439560439564</v>
-      </c>
-      <c r="E36">
-        <v>0.89568242408479104</v>
-      </c>
-      <c r="F36">
-        <v>0.89560439560439564</v>
-      </c>
-      <c r="G36">
-        <v>0.89553480486122983</v>
-      </c>
-      <c r="H36">
-        <v>0.6249813475985232</v>
-      </c>
-      <c r="I36">
-        <v>0.1043956043956044</v>
-      </c>
-      <c r="J36">
-        <v>0.58139394122809673</v>
-      </c>
-      <c r="K36">
-        <v>0.89480374058045575</v>
-      </c>
-      <c r="L36">
-        <v>152</v>
-      </c>
-      <c r="M36">
-        <v>21</v>
-      </c>
-      <c r="N36">
-        <v>17</v>
-      </c>
-      <c r="O36">
-        <v>174</v>
-      </c>
-      <c r="P36">
-        <v>86.15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37">
-        <v>0.96602387511478416</v>
-      </c>
-      <c r="E37">
-        <v>0.96601395214427843</v>
-      </c>
-      <c r="F37">
-        <v>0.96602387511478416</v>
-      </c>
-      <c r="G37">
-        <v>0.96601145929467658</v>
-      </c>
-      <c r="H37">
-        <v>0.86855830816838919</v>
-      </c>
-      <c r="I37">
-        <v>3.3976124885215793E-2</v>
-      </c>
-      <c r="J37">
-        <v>0.86184467683867649</v>
-      </c>
-      <c r="K37">
-        <v>0.9651037202125835</v>
-      </c>
-      <c r="L37">
-        <v>455</v>
-      </c>
-      <c r="M37">
-        <v>20</v>
-      </c>
-      <c r="N37">
-        <v>17</v>
-      </c>
-      <c r="O37">
-        <v>597</v>
-      </c>
-      <c r="P37">
-        <v>95.36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38">
-        <v>0.95329670329670335</v>
-      </c>
-      <c r="E38">
-        <v>0.95356333759948209</v>
-      </c>
-      <c r="F38">
-        <v>0.95329670329670335</v>
-      </c>
-      <c r="G38">
-        <v>0.95324885410035709</v>
-      </c>
-      <c r="H38">
-        <v>0.82142019313381109</v>
-      </c>
-      <c r="I38">
-        <v>4.6703296703296697E-2</v>
-      </c>
-      <c r="J38">
-        <v>0.81250189376723325</v>
-      </c>
-      <c r="K38">
-        <v>0.95229221585916424</v>
-      </c>
-      <c r="L38">
-        <v>160</v>
-      </c>
-      <c r="M38">
-        <v>11</v>
-      </c>
-      <c r="N38">
-        <v>6</v>
-      </c>
-      <c r="O38">
-        <v>187</v>
-      </c>
-      <c r="P38">
-        <v>93.59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39">
-        <v>0.94780219780219777</v>
-      </c>
-      <c r="E39">
-        <v>0.94779040055421959</v>
-      </c>
-      <c r="F39">
-        <v>0.94780219780219777</v>
-      </c>
-      <c r="G39">
-        <v>0.94778908946342943</v>
-      </c>
-      <c r="H39">
-        <v>0.80155613286212879</v>
-      </c>
-      <c r="I39">
-        <v>5.21978021978022E-2</v>
-      </c>
-      <c r="J39">
-        <v>0.7895825727151029</v>
-      </c>
-      <c r="K39">
-        <v>0.94715224534501652</v>
-      </c>
-      <c r="L39">
-        <v>156</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <v>9</v>
-      </c>
-      <c r="O39">
-        <v>189</v>
-      </c>
-      <c r="P39">
-        <v>92.96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40">
-        <v>0.91460055096418735</v>
-      </c>
-      <c r="E40">
-        <v>0.91549925143140465</v>
-      </c>
-      <c r="F40">
-        <v>0.91460055096418735</v>
-      </c>
-      <c r="G40">
-        <v>0.91476959423341364</v>
-      </c>
-      <c r="H40">
-        <v>0.68724745529364595</v>
-      </c>
-      <c r="I40">
-        <v>8.5399449035812675E-2</v>
-      </c>
-      <c r="J40">
-        <v>0.65257795615930836</v>
-      </c>
-      <c r="K40">
-        <v>0.91544200885046823</v>
-      </c>
-      <c r="L40">
-        <v>437</v>
-      </c>
-      <c r="M40">
-        <v>37</v>
-      </c>
-      <c r="N40">
-        <v>56</v>
-      </c>
-      <c r="O40">
-        <v>559</v>
-      </c>
-      <c r="P40">
-        <v>88.84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41">
-        <v>0.87087912087912089</v>
-      </c>
-      <c r="E41">
-        <v>0.87238537324744225</v>
-      </c>
-      <c r="F41">
-        <v>0.87087912087912089</v>
-      </c>
-      <c r="G41">
-        <v>0.87109942858742817</v>
-      </c>
-      <c r="H41">
-        <v>0.54896839506329653</v>
-      </c>
-      <c r="I41">
-        <v>0.12912087912087911</v>
-      </c>
-      <c r="J41">
-        <v>0.47897061062890212</v>
-      </c>
-      <c r="K41">
-        <v>0.87207248363027245</v>
-      </c>
-      <c r="L41">
-        <v>146</v>
-      </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>28</v>
-      </c>
-      <c r="O41">
-        <v>171</v>
-      </c>
-      <c r="P41">
-        <v>83.39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42">
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="E42">
-        <v>0.89041799011888734</v>
-      </c>
-      <c r="F42">
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="G42">
-        <v>0.89015640444211863</v>
-      </c>
-      <c r="H42">
-        <v>0.60766482490646812</v>
-      </c>
-      <c r="I42">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="J42">
-        <v>0.55936204339799656</v>
-      </c>
-      <c r="K42">
-        <v>0.89038525557606751</v>
-      </c>
-      <c r="L42">
-        <v>155</v>
-      </c>
-      <c r="M42">
-        <v>18</v>
-      </c>
-      <c r="N42">
-        <v>22</v>
-      </c>
-      <c r="O42">
-        <v>169</v>
-      </c>
-      <c r="P42">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>0.95041322314049592</v>
-      </c>
-      <c r="E43">
-        <v>0.95077551609973876</v>
-      </c>
-      <c r="F43">
-        <v>0.95041322314049592</v>
-      </c>
-      <c r="G43">
-        <v>0.95047782458069552</v>
-      </c>
-      <c r="H43">
-        <v>0.81128527768888581</v>
-      </c>
-      <c r="I43">
-        <v>4.9586776859504127E-2</v>
-      </c>
-      <c r="J43">
-        <v>0.79836790673752789</v>
-      </c>
-      <c r="K43">
-        <v>0.95102177267272414</v>
-      </c>
-      <c r="L43">
-        <v>454</v>
-      </c>
-      <c r="M43">
-        <v>21</v>
-      </c>
-      <c r="N43">
-        <v>33</v>
-      </c>
-      <c r="O43">
-        <v>581</v>
-      </c>
-      <c r="P43">
-        <v>93.46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44">
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="E44">
-        <v>0.96156880594750416</v>
-      </c>
-      <c r="F44">
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="G44">
-        <v>0.96152446704296313</v>
-      </c>
-      <c r="H44">
-        <v>0.851663169923354</v>
-      </c>
-      <c r="I44">
-        <v>3.8461538461538457E-2</v>
-      </c>
-      <c r="J44">
-        <v>0.84558979486713326</v>
-      </c>
-      <c r="K44">
-        <v>0.96106414568372567</v>
-      </c>
-      <c r="L44">
-        <v>163</v>
-      </c>
-      <c r="M44">
-        <v>8</v>
-      </c>
-      <c r="N44">
-        <v>6</v>
-      </c>
-      <c r="O44">
-        <v>187</v>
-      </c>
-      <c r="P44">
-        <v>94.77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45">
-        <v>0.93131868131868134</v>
-      </c>
-      <c r="E45">
-        <v>0.93326065758767662</v>
-      </c>
-      <c r="F45">
-        <v>0.93131868131868134</v>
-      </c>
-      <c r="G45">
-        <v>0.93143882356710339</v>
-      </c>
-      <c r="H45">
-        <v>0.74344094026911878</v>
-      </c>
-      <c r="I45">
-        <v>6.8681318681318687E-2</v>
-      </c>
-      <c r="J45">
-        <v>0.72313496409881961</v>
-      </c>
-      <c r="K45">
-        <v>0.93346111719605707</v>
-      </c>
-      <c r="L45">
-        <v>159</v>
-      </c>
-      <c r="M45">
-        <v>7</v>
-      </c>
-      <c r="N45">
-        <v>18</v>
-      </c>
-      <c r="O45">
-        <v>180</v>
-      </c>
-      <c r="P45">
-        <v>91.22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>0.91276400367309463</v>
-      </c>
-      <c r="E46">
-        <v>0.91281502594085528</v>
-      </c>
-      <c r="F46">
-        <v>0.91276400367309463</v>
-      </c>
-      <c r="G46">
-        <v>0.91256217372923443</v>
-      </c>
-      <c r="H46">
-        <v>0.68107765423489308</v>
-      </c>
-      <c r="I46">
-        <v>8.7235996326905416E-2</v>
-      </c>
-      <c r="J46">
-        <v>0.64510651435628263</v>
-      </c>
-      <c r="K46">
-        <v>0.90922095296902339</v>
-      </c>
-      <c r="L46">
-        <v>418</v>
-      </c>
-      <c r="M46">
-        <v>56</v>
-      </c>
-      <c r="N46">
-        <v>39</v>
-      </c>
-      <c r="O46">
-        <v>576</v>
-      </c>
-      <c r="P46">
-        <v>88.16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47">
-        <v>0.87087912087912089</v>
-      </c>
-      <c r="E47">
-        <v>0.87238537324744225</v>
-      </c>
-      <c r="F47">
-        <v>0.87087912087912089</v>
-      </c>
-      <c r="G47">
-        <v>0.87109942858742817</v>
-      </c>
-      <c r="H47">
-        <v>0.54896839506329653</v>
-      </c>
-      <c r="I47">
-        <v>0.12912087912087911</v>
-      </c>
-      <c r="J47">
-        <v>0.47897061062890212</v>
-      </c>
-      <c r="K47">
-        <v>0.87207248363027245</v>
-      </c>
-      <c r="L47">
-        <v>146</v>
-      </c>
-      <c r="M47">
-        <v>19</v>
-      </c>
-      <c r="N47">
-        <v>28</v>
-      </c>
-      <c r="O47">
-        <v>171</v>
-      </c>
-      <c r="P47">
-        <v>83.39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48">
-        <v>0.89835164835164838</v>
-      </c>
-      <c r="E48">
-        <v>0.89908436076119003</v>
-      </c>
-      <c r="F48">
-        <v>0.89835164835164838</v>
-      </c>
-      <c r="G48">
-        <v>0.89816419208831588</v>
-      </c>
-      <c r="H48">
-        <v>0.63373068855381598</v>
-      </c>
-      <c r="I48">
-        <v>0.10164835164835161</v>
-      </c>
-      <c r="J48">
-        <v>0.59240989014314682</v>
-      </c>
-      <c r="K48">
-        <v>0.89687679690100774</v>
-      </c>
-      <c r="L48">
-        <v>150</v>
-      </c>
-      <c r="M48">
-        <v>23</v>
-      </c>
-      <c r="N48">
-        <v>14</v>
-      </c>
-      <c r="O48">
-        <v>177</v>
-      </c>
-      <c r="P48">
-        <v>86.35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49">
-        <v>0.94123048668503217</v>
-      </c>
-      <c r="E49">
-        <v>0.94124178471685815</v>
-      </c>
-      <c r="F49">
-        <v>0.94123048668503217</v>
-      </c>
-      <c r="G49">
-        <v>0.94115523956816605</v>
-      </c>
-      <c r="H49">
-        <v>0.77846439883395468</v>
-      </c>
-      <c r="I49">
-        <v>5.876951331496786E-2</v>
-      </c>
-      <c r="J49">
-        <v>0.76102863020744049</v>
-      </c>
-      <c r="K49">
-        <v>0.93906566089490828</v>
-      </c>
-      <c r="L49">
-        <v>438</v>
-      </c>
-      <c r="M49">
-        <v>37</v>
-      </c>
-      <c r="N49">
-        <v>27</v>
-      </c>
-      <c r="O49">
-        <v>587</v>
-      </c>
-      <c r="P49">
-        <v>91.97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50">
-        <v>0.94780219780219777</v>
-      </c>
-      <c r="E50">
-        <v>0.94926874595992239</v>
-      </c>
-      <c r="F50">
-        <v>0.94780219780219777</v>
-      </c>
-      <c r="G50">
-        <v>0.94765800607574635</v>
-      </c>
-      <c r="H50">
-        <v>0.80155993017895599</v>
-      </c>
-      <c r="I50">
-        <v>5.21978021978022E-2</v>
-      </c>
-      <c r="J50">
-        <v>0.79044329303396665</v>
-      </c>
-      <c r="K50">
-        <v>0.94577765657667479</v>
-      </c>
-      <c r="L50">
-        <v>156</v>
-      </c>
-      <c r="M50">
-        <v>15</v>
-      </c>
-      <c r="N50">
-        <v>4</v>
-      </c>
-      <c r="O50">
-        <v>189</v>
-      </c>
-      <c r="P50">
-        <v>92.69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51">
-        <v>0.93681318681318682</v>
-      </c>
-      <c r="E51">
-        <v>0.93684060651371337</v>
-      </c>
-      <c r="F51">
-        <v>0.93681318681318682</v>
-      </c>
-      <c r="G51">
-        <v>0.93676264544925558</v>
-      </c>
-      <c r="H51">
-        <v>0.76256106855765105</v>
-      </c>
-      <c r="I51">
-        <v>6.3186813186813184E-2</v>
-      </c>
-      <c r="J51">
-        <v>0.74528416697091404</v>
-      </c>
-      <c r="K51">
-        <v>0.93559084824145067</v>
-      </c>
-      <c r="L51">
-        <v>153</v>
-      </c>
-      <c r="M51">
-        <v>13</v>
-      </c>
-      <c r="N51">
-        <v>10</v>
-      </c>
-      <c r="O51">
-        <v>188</v>
-      </c>
-      <c r="P51">
-        <v>91.45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>0.98806244260789711</v>
-      </c>
-      <c r="E52">
-        <v>0.98806122924420059</v>
-      </c>
-      <c r="F52">
-        <v>0.98806244260789711</v>
-      </c>
-      <c r="G52">
-        <v>0.98806098850283963</v>
-      </c>
-      <c r="H52">
-        <v>0.95276418583096401</v>
-      </c>
-      <c r="I52">
-        <v>1.193755739210285E-2</v>
-      </c>
-      <c r="J52">
-        <v>0.95143562828033346</v>
-      </c>
-      <c r="K52">
-        <v>0.98773798497478638</v>
-      </c>
-      <c r="L52">
-        <v>467</v>
-      </c>
-      <c r="M52">
-        <v>7</v>
-      </c>
-      <c r="N52">
-        <v>6</v>
-      </c>
-      <c r="O52">
-        <v>609</v>
-      </c>
-      <c r="P52">
-        <v>98.36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53">
-        <v>0.90934065934065933</v>
-      </c>
-      <c r="E53">
-        <v>0.90941809416074126</v>
-      </c>
-      <c r="F53">
-        <v>0.90934065934065933</v>
-      </c>
-      <c r="G53">
-        <v>0.90920568265481416</v>
-      </c>
-      <c r="H53">
-        <v>0.66930708700711583</v>
-      </c>
-      <c r="I53">
-        <v>9.0659340659340656E-2</v>
-      </c>
-      <c r="J53">
-        <v>0.63417085427135689</v>
-      </c>
-      <c r="K53">
-        <v>0.90724836302725753</v>
-      </c>
-      <c r="L53">
-        <v>146</v>
-      </c>
-      <c r="M53">
-        <v>19</v>
-      </c>
-      <c r="N53">
-        <v>14</v>
-      </c>
-      <c r="O53">
-        <v>185</v>
-      </c>
-      <c r="P53">
-        <v>87.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54">
-        <v>0.90384615384615385</v>
-      </c>
-      <c r="E54">
-        <v>0.90383217799642213</v>
-      </c>
-      <c r="F54">
-        <v>0.90384615384615385</v>
-      </c>
-      <c r="G54">
-        <v>0.90383232766023103</v>
-      </c>
-      <c r="H54">
-        <v>0.65140922561536518</v>
-      </c>
-      <c r="I54">
-        <v>9.6153846153846159E-2</v>
-      </c>
-      <c r="J54">
-        <v>0.614441787973247</v>
-      </c>
-      <c r="K54">
-        <v>0.90347426081166959</v>
-      </c>
-      <c r="L54">
-        <v>155</v>
-      </c>
-      <c r="M54">
-        <v>18</v>
-      </c>
-      <c r="N54">
-        <v>17</v>
-      </c>
-      <c r="O54">
-        <v>174</v>
-      </c>
-      <c r="P54">
-        <v>87.29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>0.99816345270890727</v>
-      </c>
-      <c r="E55">
-        <v>0.99816345270890727</v>
-      </c>
-      <c r="F55">
-        <v>0.99816345270890727</v>
-      </c>
-      <c r="G55">
-        <v>0.99816345270890727</v>
-      </c>
-      <c r="H55">
-        <v>0.99265882456395216</v>
-      </c>
-      <c r="I55">
-        <v>1.8365472910927461E-3</v>
-      </c>
-      <c r="J55">
-        <v>0.99253214469398254</v>
-      </c>
-      <c r="K55">
-        <v>0.99813303617349558</v>
-      </c>
-      <c r="L55">
-        <v>474</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>613</v>
-      </c>
-      <c r="P55">
-        <v>99.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56">
-        <v>0.96978021978021978</v>
-      </c>
-      <c r="E56">
-        <v>0.97041108281961941</v>
-      </c>
-      <c r="F56">
-        <v>0.96978021978021978</v>
-      </c>
-      <c r="G56">
-        <v>0.96973362363586824</v>
-      </c>
-      <c r="H56">
-        <v>0.88245012943645662</v>
-      </c>
-      <c r="I56">
-        <v>3.021978021978022E-2</v>
-      </c>
-      <c r="J56">
-        <v>0.87867769596703327</v>
-      </c>
-      <c r="K56">
-        <v>0.96850286337605684</v>
-      </c>
-      <c r="L56">
-        <v>162</v>
-      </c>
-      <c r="M56">
-        <v>9</v>
-      </c>
-      <c r="N56">
-        <v>2</v>
-      </c>
-      <c r="O56">
-        <v>191</v>
-      </c>
-      <c r="P56">
-        <v>95.72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57">
-        <v>0.95879120879120883</v>
-      </c>
-      <c r="E57">
-        <v>0.95933931078891954</v>
-      </c>
-      <c r="F57">
-        <v>0.95879120879120883</v>
-      </c>
-      <c r="G57">
-        <v>0.95870531453658014</v>
-      </c>
-      <c r="H57">
-        <v>0.84151161738821467</v>
-      </c>
-      <c r="I57">
-        <v>4.1208791208791208E-2</v>
-      </c>
-      <c r="J57">
-        <v>0.83388097845929177</v>
-      </c>
-      <c r="K57">
-        <v>0.95676645977850783</v>
-      </c>
-      <c r="L57">
-        <v>155</v>
-      </c>
-      <c r="M57">
-        <v>11</v>
-      </c>
-      <c r="N57">
-        <v>4</v>
-      </c>
-      <c r="O57">
-        <v>194</v>
-      </c>
-      <c r="P57">
-        <v>94.23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58">
-        <v>0.96602387511478416</v>
-      </c>
-      <c r="E58">
-        <v>0.96604476494399361</v>
-      </c>
-      <c r="F58">
-        <v>0.96602387511478416</v>
-      </c>
-      <c r="G58">
-        <v>0.96599363563771379</v>
-      </c>
-      <c r="H58">
-        <v>0.86855198237451869</v>
-      </c>
-      <c r="I58">
-        <v>3.3976124885215793E-2</v>
-      </c>
-      <c r="J58">
-        <v>0.86177832664402587</v>
-      </c>
-      <c r="K58">
-        <v>0.96459812699392822</v>
-      </c>
-      <c r="L58">
-        <v>452</v>
-      </c>
-      <c r="M58">
-        <v>22</v>
-      </c>
-      <c r="N58">
-        <v>15</v>
-      </c>
-      <c r="O58">
-        <v>600</v>
-      </c>
-      <c r="P58">
-        <v>95.31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59">
-        <v>0.90109890109890112</v>
-      </c>
-      <c r="E59">
-        <v>0.90149771333203288</v>
-      </c>
-      <c r="F59">
-        <v>0.90109890109890112</v>
-      </c>
-      <c r="G59">
-        <v>0.90118908721297852</v>
-      </c>
-      <c r="H59">
-        <v>0.64253421951205125</v>
-      </c>
-      <c r="I59">
-        <v>9.8901098901098897E-2</v>
-      </c>
-      <c r="J59">
-        <v>0.60091365920511652</v>
-      </c>
-      <c r="K59">
-        <v>0.90126389523374451</v>
-      </c>
-      <c r="L59">
-        <v>149</v>
-      </c>
-      <c r="M59">
-        <v>16</v>
-      </c>
-      <c r="N59">
-        <v>20</v>
-      </c>
-      <c r="O59">
-        <v>179</v>
-      </c>
-      <c r="P59">
-        <v>87.05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60">
-        <v>0.90384615384615385</v>
-      </c>
-      <c r="E60">
-        <v>0.90387764146102534</v>
-      </c>
-      <c r="F60">
-        <v>0.90384615384615385</v>
-      </c>
-      <c r="G60">
-        <v>0.90380028135130186</v>
-      </c>
-      <c r="H60">
-        <v>0.65140936617878675</v>
-      </c>
-      <c r="I60">
-        <v>9.6153846153846159E-2</v>
-      </c>
-      <c r="J60">
-        <v>0.614441787973247</v>
-      </c>
-      <c r="K60">
-        <v>0.90320188844838545</v>
-      </c>
-      <c r="L60">
-        <v>154</v>
-      </c>
-      <c r="M60">
-        <v>19</v>
-      </c>
-      <c r="N60">
-        <v>16</v>
-      </c>
-      <c r="O60">
-        <v>175</v>
-      </c>
-      <c r="P60">
-        <v>87.23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61">
-        <v>0.98806244260789711</v>
-      </c>
-      <c r="E61">
-        <v>0.98817289430466582</v>
-      </c>
-      <c r="F61">
-        <v>0.98806244260789711</v>
-      </c>
-      <c r="G61">
-        <v>0.98804878230358351</v>
-      </c>
-      <c r="H61">
-        <v>0.95276197338387136</v>
-      </c>
-      <c r="I61">
-        <v>1.193755739210285E-2</v>
-      </c>
-      <c r="J61">
-        <v>0.95145894051088631</v>
-      </c>
-      <c r="K61">
-        <v>0.98679238813646497</v>
-      </c>
-      <c r="L61">
-        <v>464</v>
-      </c>
-      <c r="M61">
-        <v>11</v>
-      </c>
-      <c r="N61">
-        <v>2</v>
-      </c>
-      <c r="O61">
-        <v>612</v>
-      </c>
-      <c r="P61">
-        <v>98.27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62">
-        <v>0.97527472527472525</v>
-      </c>
-      <c r="E62">
-        <v>0.97592669525596354</v>
-      </c>
-      <c r="F62">
-        <v>0.97527472527472525</v>
-      </c>
-      <c r="G62">
-        <v>0.97523660115661925</v>
-      </c>
-      <c r="H62">
-        <v>0.90327792004879703</v>
-      </c>
-      <c r="I62">
-        <v>2.4725274725274721E-2</v>
-      </c>
-      <c r="J62">
-        <v>0.90073629670029998</v>
-      </c>
-      <c r="K62">
-        <v>0.97401751355937338</v>
-      </c>
-      <c r="L62">
-        <v>163</v>
-      </c>
-      <c r="M62">
-        <v>8</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>192</v>
-      </c>
-      <c r="P62">
-        <v>96.45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63">
-        <v>0.9505494505494505</v>
-      </c>
-      <c r="E63">
-        <v>0.95067302823078403</v>
-      </c>
-      <c r="F63">
-        <v>0.9505494505494505</v>
-      </c>
-      <c r="G63">
-        <v>0.95049517555615126</v>
-      </c>
-      <c r="H63">
-        <v>0.81145245618199202</v>
-      </c>
-      <c r="I63">
-        <v>4.9450549450549448E-2</v>
-      </c>
-      <c r="J63">
-        <v>0.80065717415115012</v>
-      </c>
-      <c r="K63">
-        <v>0.94919070220275026</v>
-      </c>
-      <c r="L63">
-        <v>155</v>
-      </c>
-      <c r="M63">
-        <v>11</v>
-      </c>
-      <c r="N63">
-        <v>7</v>
-      </c>
-      <c r="O63">
-        <v>191</v>
-      </c>
-      <c r="P63">
-        <v>93.23</v>
+        <v>94.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
